--- a/resources/YM2151_pipeline.xlsx
+++ b/resources/YM2151_pipeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiki1\Documents\GitHub\IKA2151\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD8B77-B8D1-4309-A6D8-E19B0AC1604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F2E3A1-F7DE-4286-B62E-603BBF97AB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21FA489F-99A7-4423-AACC-AAA6225B3652}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="139">
   <si>
     <t>cycles</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,23 +717,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,8 +732,20 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26F0356-A14C-4D6F-8D86-37D3D942B4BC}">
   <dimension ref="A1:AO120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="68" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1291,12 +1288,6 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1510,13 +1501,13 @@
       <c r="D13" s="1">
         <v>9</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1526,14 +1517,14 @@
       <c r="M13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="3" t="s">
         <v>138</v>
       </c>
@@ -1554,28 +1545,28 @@
       <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1596,30 +1587,30 @@
       <c r="D15" s="1">
         <v>11</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -1634,28 +1625,28 @@
       <c r="D16" s="1">
         <v>12</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
@@ -1670,28 +1661,28 @@
       <c r="D17" s="1">
         <v>13</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
+      <c r="O17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
@@ -1706,28 +1697,28 @@
       <c r="D18" s="1">
         <v>14</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
+      <c r="O18" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
@@ -1742,28 +1733,28 @@
       <c r="D19" s="1">
         <v>15</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
+      <c r="O19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
@@ -1778,28 +1769,28 @@
       <c r="D20" s="1">
         <v>16</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
+      <c r="O20" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -1814,26 +1805,26 @@
       <c r="D21" s="1">
         <v>17</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="O21" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="O21" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -1848,26 +1839,26 @@
       <c r="D22" s="1">
         <v>18</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="O22" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="O22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
@@ -1882,26 +1873,26 @@
       <c r="D23" s="1">
         <v>19</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="O23" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
+      <c r="F23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="O23" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -1916,26 +1907,26 @@
       <c r="D24" s="1">
         <v>20</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="O24" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
+      <c r="F24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="O24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
       <c r="Z24" s="12" t="s">
         <v>93</v>
       </c>
@@ -1957,28 +1948,28 @@
       <c r="D25" s="1">
         <v>21</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="O25" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
+      <c r="F25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="O25" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
       <c r="Z25" s="12"/>
-      <c r="AA25" s="15" t="s">
+      <c r="AA25" s="13" t="s">
         <v>104</v>
       </c>
       <c r="AB25" s="1"/>
@@ -1999,28 +1990,28 @@
       <c r="D26" s="1">
         <v>22</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="O26" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
+      <c r="F26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="O26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
       <c r="Z26" s="12"/>
-      <c r="AA26" s="15"/>
+      <c r="AA26" s="13"/>
       <c r="AB26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AH26" s="1"/>
@@ -2039,28 +2030,28 @@
       <c r="D27" s="1">
         <v>23</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="O27" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
+      <c r="F27" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="O27" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
       <c r="Z27" s="12"/>
-      <c r="AA27" s="15"/>
+      <c r="AA27" s="13"/>
       <c r="AB27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AH27" s="1"/>
@@ -2079,28 +2070,28 @@
       <c r="D28" s="1">
         <v>24</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="O28" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
+      <c r="F28" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="O28" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
       <c r="Z28" s="12"/>
-      <c r="AA28" s="15"/>
+      <c r="AA28" s="13"/>
       <c r="AB28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AH28" s="1"/>
@@ -2119,28 +2110,28 @@
       <c r="D29" s="1">
         <v>25</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="O29" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
+      <c r="F29" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="O29" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
       <c r="Z29" s="12"/>
-      <c r="AA29" s="15"/>
+      <c r="AA29" s="13"/>
       <c r="AB29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AH29" s="1"/>
@@ -2159,28 +2150,28 @@
       <c r="D30" s="1">
         <v>26</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="O30" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
+      <c r="F30" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="O30" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="15"/>
+      <c r="AA30" s="13"/>
       <c r="AB30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AH30" s="1"/>
@@ -2199,28 +2190,28 @@
       <c r="D31" s="1">
         <v>27</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="O31" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
+      <c r="F31" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="O31" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
       <c r="Z31" s="12"/>
-      <c r="AA31" s="15"/>
+      <c r="AA31" s="13"/>
       <c r="AB31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AH31" s="1"/>
@@ -2239,30 +2230,30 @@
       <c r="D32" s="1">
         <v>28</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="O32" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
+      <c r="F32" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="O32" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
       <c r="Z32" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AA32" s="15"/>
+      <c r="AA32" s="13"/>
       <c r="AB32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AH32" s="1"/>
@@ -2281,28 +2272,28 @@
       <c r="D33" s="1">
         <v>29</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="O33" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
+      <c r="F33" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="O33" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
       <c r="Z33" s="12"/>
-      <c r="AA33" s="15" t="s">
+      <c r="AA33" s="13" t="s">
         <v>105</v>
       </c>
       <c r="AB33" s="1"/>
@@ -2323,28 +2314,28 @@
       <c r="D34" s="1">
         <v>30</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="O34" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
+      <c r="F34" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="O34" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
       <c r="Z34" s="12"/>
-      <c r="AA34" s="15"/>
+      <c r="AA34" s="13"/>
       <c r="AB34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AH34" s="1"/>
@@ -2363,28 +2354,28 @@
       <c r="D35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="O35" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
+      <c r="F35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="O35" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
       <c r="Z35" s="12"/>
-      <c r="AA35" s="15"/>
+      <c r="AA35" s="13"/>
       <c r="AB35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AH35" s="1"/>
@@ -2403,28 +2394,28 @@
       <c r="D36" s="1">
         <v>32</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="O36" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
+      <c r="F36" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="O36" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
       <c r="Z36" s="12"/>
-      <c r="AA36" s="15"/>
+      <c r="AA36" s="13"/>
       <c r="AB36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AH36" s="1"/>
@@ -2443,28 +2434,28 @@
       <c r="D37" s="1">
         <v>33</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="O37" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
+      <c r="F37" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="O37" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
       <c r="Z37" s="12"/>
-      <c r="AA37" s="15"/>
+      <c r="AA37" s="13"/>
       <c r="AB37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AH37" s="1"/>
@@ -2483,28 +2474,28 @@
       <c r="D38" s="1">
         <v>34</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="O38" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
+      <c r="F38" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="O38" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
       <c r="Z38" s="12"/>
-      <c r="AA38" s="15"/>
+      <c r="AA38" s="13"/>
       <c r="AB38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AH38" s="1"/>
@@ -2523,28 +2514,28 @@
       <c r="D39" s="1">
         <v>35</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="O39" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
+      <c r="F39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="O39" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
       <c r="Z39" s="12"/>
-      <c r="AA39" s="15"/>
+      <c r="AA39" s="13"/>
       <c r="AB39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AH39" s="1"/>
@@ -2563,30 +2554,30 @@
       <c r="D40" s="1">
         <v>36</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="O40" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
+      <c r="F40" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="O40" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
       <c r="Z40" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AA40" s="15"/>
+      <c r="AA40" s="13"/>
       <c r="AB40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AH40" s="1"/>
@@ -2605,28 +2596,28 @@
       <c r="D41" s="1">
         <v>37</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="O41" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
+      <c r="F41" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="O41" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
       <c r="Z41" s="12"/>
-      <c r="AA41" s="15" t="s">
+      <c r="AA41" s="13" t="s">
         <v>106</v>
       </c>
       <c r="AB41" s="1"/>
@@ -2647,28 +2638,28 @@
       <c r="D42" s="1">
         <v>38</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="O42" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
+      <c r="F42" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="O42" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
       <c r="Z42" s="12"/>
-      <c r="AA42" s="15"/>
+      <c r="AA42" s="13"/>
       <c r="AB42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AH42" s="1"/>
@@ -2687,28 +2678,28 @@
       <c r="D43" s="1">
         <v>39</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="O43" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
+      <c r="F43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="O43" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
       <c r="Z43" s="12"/>
-      <c r="AA43" s="15"/>
+      <c r="AA43" s="13"/>
       <c r="AB43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AH43" s="1"/>
@@ -2727,32 +2718,32 @@
       <c r="D44" s="1">
         <v>40</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="O44" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
+      <c r="F44" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="O44" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
       <c r="W44" s="12" t="s">
         <v>37</v>
       </c>
       <c r="X44" s="12"/>
       <c r="Z44" s="12"/>
-      <c r="AA44" s="15"/>
+      <c r="AA44" s="13"/>
       <c r="AB44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AH44" s="1"/>
@@ -2771,14 +2762,14 @@
       <c r="D45" s="1">
         <v>41</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
       <c r="O45" s="12" t="s">
         <v>40</v>
       </c>
@@ -2792,7 +2783,7 @@
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
       <c r="Z45" s="12"/>
-      <c r="AA45" s="15"/>
+      <c r="AA45" s="13"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1" t="s">
         <v>41</v>
@@ -2811,14 +2802,14 @@
       <c r="D46" s="1">
         <v>42</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
       <c r="O46" s="12" t="s">
         <v>45</v>
       </c>
@@ -2832,7 +2823,7 @@
       <c r="W46" s="12"/>
       <c r="X46" s="12"/>
       <c r="Z46" s="12"/>
-      <c r="AA46" s="15"/>
+      <c r="AA46" s="13"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1" t="s">
         <v>42</v>
@@ -2851,14 +2842,14 @@
       <c r="D47" s="1">
         <v>43</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
       <c r="O47" s="12" t="s">
         <v>89</v>
       </c>
@@ -2872,7 +2863,7 @@
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Z47" s="12"/>
-      <c r="AA47" s="15"/>
+      <c r="AA47" s="13"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1" t="s">
         <v>43</v>
@@ -2891,18 +2882,18 @@
       <c r="D48" s="1">
         <v>44</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
       <c r="Z48" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AA48" s="15"/>
+      <c r="AA48" s="13"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1" t="s">
         <v>44</v>
@@ -2921,16 +2912,16 @@
       <c r="D49" s="1">
         <v>45</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
       <c r="Z49" s="12"/>
-      <c r="AA49" s="15" t="s">
+      <c r="AA49" s="13" t="s">
         <v>107</v>
       </c>
       <c r="AB49" s="1"/>
@@ -2951,16 +2942,16 @@
       <c r="D50" s="1">
         <v>46</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
       <c r="Z50" s="12"/>
-      <c r="AA50" s="15"/>
+      <c r="AA50" s="13"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1" t="s">
         <v>91</v>
@@ -2979,16 +2970,16 @@
       <c r="D51" s="1">
         <v>47</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
       <c r="Z51" s="12"/>
-      <c r="AA51" s="15"/>
+      <c r="AA51" s="13"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1" t="s">
         <v>92</v>
@@ -3008,7 +2999,7 @@
         <v>48</v>
       </c>
       <c r="Z52" s="12"/>
-      <c r="AA52" s="15"/>
+      <c r="AA52" s="13"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1" t="s">
         <v>98</v>
@@ -3028,7 +3019,7 @@
         <v>49</v>
       </c>
       <c r="Z53" s="12"/>
-      <c r="AA53" s="15"/>
+      <c r="AA53" s="13"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1" t="s">
         <v>99</v>
@@ -3052,7 +3043,7 @@
         <v>50</v>
       </c>
       <c r="Z54" s="12"/>
-      <c r="AA54" s="15"/>
+      <c r="AA54" s="13"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1" t="s">
         <v>100</v>
@@ -3076,7 +3067,7 @@
         <v>51</v>
       </c>
       <c r="Z55" s="12"/>
-      <c r="AA55" s="15"/>
+      <c r="AA55" s="13"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1" t="s">
         <v>3</v>
@@ -3102,7 +3093,7 @@
       <c r="Z56" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AA56" s="15"/>
+      <c r="AA56" s="13"/>
       <c r="AB56" s="1" t="s">
         <v>3</v>
       </c>
@@ -3128,7 +3119,7 @@
         <v>53</v>
       </c>
       <c r="Z57" s="12"/>
-      <c r="AA57" s="15" t="s">
+      <c r="AA57" s="13" t="s">
         <v>104</v>
       </c>
       <c r="AB57" s="1" t="s">
@@ -3159,7 +3150,7 @@
         <v>54</v>
       </c>
       <c r="Z58" s="12"/>
-      <c r="AA58" s="15"/>
+      <c r="AA58" s="13"/>
       <c r="AB58" s="12" t="s">
         <v>127</v>
       </c>
@@ -3183,7 +3174,7 @@
         <v>55</v>
       </c>
       <c r="Z59" s="12"/>
-      <c r="AA59" s="15"/>
+      <c r="AA59" s="13"/>
       <c r="AB59" s="12" t="s">
         <v>128</v>
       </c>
@@ -3210,12 +3201,12 @@
         <v>56</v>
       </c>
       <c r="Z60" s="12"/>
-      <c r="AA60" s="15"/>
-      <c r="AB60" s="16" t="s">
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AC60" s="16"/>
-      <c r="AD60" s="16"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1" t="s">
         <v>98</v>
@@ -3235,7 +3226,7 @@
         <v>57</v>
       </c>
       <c r="Z61" s="12"/>
-      <c r="AA61" s="15"/>
+      <c r="AA61" s="13"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="5" t="s">
         <v>41</v>
@@ -3260,7 +3251,7 @@
         <v>58</v>
       </c>
       <c r="Z62" s="12"/>
-      <c r="AA62" s="15"/>
+      <c r="AA62" s="13"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1" t="s">
         <v>42</v>
@@ -3285,7 +3276,7 @@
         <v>59</v>
       </c>
       <c r="Z63" s="12"/>
-      <c r="AA63" s="15"/>
+      <c r="AA63" s="13"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1" t="s">
         <v>43</v>
@@ -3312,7 +3303,7 @@
       <c r="Z64" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AA64" s="15"/>
+      <c r="AA64" s="13"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1" t="s">
         <v>44</v>
@@ -3339,7 +3330,7 @@
         <v>61</v>
       </c>
       <c r="Z65" s="12"/>
-      <c r="AA65" s="15" t="s">
+      <c r="AA65" s="13" t="s">
         <v>105</v>
       </c>
       <c r="AE65" s="1"/>
@@ -3371,7 +3362,7 @@
         <v>62</v>
       </c>
       <c r="Z66" s="12"/>
-      <c r="AA66" s="15"/>
+      <c r="AA66" s="13"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1" t="s">
         <v>91</v>
@@ -3396,7 +3387,7 @@
         <v>63</v>
       </c>
       <c r="Z67" s="12"/>
-      <c r="AA67" s="15"/>
+      <c r="AA67" s="13"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1" t="s">
         <v>92</v>
@@ -3424,16 +3415,16 @@
         <v>64</v>
       </c>
       <c r="Z68" s="12"/>
-      <c r="AA68" s="15"/>
+      <c r="AA68" s="13"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AH68" s="18" t="s">
+      <c r="AH68" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AI68" s="18"/>
-      <c r="AJ68" s="18"/>
+      <c r="AI68" s="19"/>
+      <c r="AJ68" s="19"/>
       <c r="AK68" s="1"/>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.45">
@@ -3450,7 +3441,7 @@
         <v>65</v>
       </c>
       <c r="Z69" s="12"/>
-      <c r="AA69" s="15"/>
+      <c r="AA69" s="13"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1" t="s">
         <v>99</v>
@@ -3474,7 +3465,7 @@
         <v>66</v>
       </c>
       <c r="Z70" s="12"/>
-      <c r="AA70" s="15"/>
+      <c r="AA70" s="13"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1" t="s">
         <v>100</v>
@@ -3498,7 +3489,7 @@
         <v>67</v>
       </c>
       <c r="Z71" s="12"/>
-      <c r="AA71" s="15"/>
+      <c r="AA71" s="13"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1" t="s">
         <v>3</v>
@@ -3524,7 +3515,7 @@
       <c r="Z72" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AA72" s="15"/>
+      <c r="AA72" s="13"/>
       <c r="AE72" s="1" t="s">
         <v>3</v>
       </c>
@@ -3550,7 +3541,7 @@
         <v>69</v>
       </c>
       <c r="Z73" s="12"/>
-      <c r="AA73" s="15" t="s">
+      <c r="AA73" s="13" t="s">
         <v>106</v>
       </c>
       <c r="AE73" s="1" t="s">
@@ -3581,7 +3572,7 @@
         <v>70</v>
       </c>
       <c r="Z74" s="12"/>
-      <c r="AA74" s="15"/>
+      <c r="AA74" s="13"/>
       <c r="AE74" s="12" t="s">
         <v>127</v>
       </c>
@@ -3605,7 +3596,7 @@
         <v>71</v>
       </c>
       <c r="Z75" s="12"/>
-      <c r="AA75" s="15"/>
+      <c r="AA75" s="13"/>
       <c r="AE75" s="12" t="s">
         <v>128</v>
       </c>
@@ -3632,12 +3623,12 @@
         <v>72</v>
       </c>
       <c r="Z76" s="12"/>
-      <c r="AA76" s="15"/>
-      <c r="AE76" s="17" t="s">
+      <c r="AA76" s="13"/>
+      <c r="AE76" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AF76" s="17"/>
-      <c r="AG76" s="17"/>
+      <c r="AF76" s="18"/>
+      <c r="AG76" s="18"/>
       <c r="AK76" s="1"/>
       <c r="AL76" s="1" t="s">
         <v>98</v>
@@ -3657,7 +3648,7 @@
         <v>73</v>
       </c>
       <c r="Z77" s="12"/>
-      <c r="AA77" s="15"/>
+      <c r="AA77" s="13"/>
       <c r="AB77" s="7"/>
       <c r="AC77" s="8" t="s">
         <v>41</v>
@@ -3682,7 +3673,7 @@
         <v>74</v>
       </c>
       <c r="Z78" s="12"/>
-      <c r="AA78" s="15"/>
+      <c r="AA78" s="13"/>
       <c r="AB78" s="7"/>
       <c r="AC78" s="7" t="s">
         <v>42</v>
@@ -3707,7 +3698,7 @@
         <v>75</v>
       </c>
       <c r="Z79" s="12"/>
-      <c r="AA79" s="15"/>
+      <c r="AA79" s="13"/>
       <c r="AB79" s="7"/>
       <c r="AC79" s="7" t="s">
         <v>43</v>
@@ -3734,7 +3725,7 @@
       <c r="Z80" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AA80" s="15"/>
+      <c r="AA80" s="13"/>
       <c r="AB80" s="7"/>
       <c r="AC80" s="7" t="s">
         <v>44</v>
@@ -3761,7 +3752,7 @@
         <v>77</v>
       </c>
       <c r="Z81" s="12"/>
-      <c r="AA81" s="15" t="s">
+      <c r="AA81" s="13" t="s">
         <v>107</v>
       </c>
       <c r="AB81" s="7"/>
@@ -3793,7 +3784,7 @@
         <v>78</v>
       </c>
       <c r="Z82" s="12"/>
-      <c r="AA82" s="15"/>
+      <c r="AA82" s="13"/>
       <c r="AB82" s="7"/>
       <c r="AC82" s="7" t="s">
         <v>91</v>
@@ -3818,7 +3809,7 @@
         <v>79</v>
       </c>
       <c r="Z83" s="12"/>
-      <c r="AA83" s="15"/>
+      <c r="AA83" s="13"/>
       <c r="AB83" s="7"/>
       <c r="AC83" s="7" t="s">
         <v>92</v>
@@ -3846,17 +3837,17 @@
         <v>80</v>
       </c>
       <c r="Z84" s="12"/>
-      <c r="AA84" s="15"/>
+      <c r="AA84" s="13"/>
       <c r="AB84" s="7"/>
       <c r="AC84" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AD84" s="7"/>
-      <c r="AK84" s="22" t="s">
+      <c r="AK84" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="AL84" s="22"/>
-      <c r="AM84" s="22"/>
+      <c r="AL84" s="17"/>
+      <c r="AM84" s="17"/>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -3872,7 +3863,7 @@
         <v>81</v>
       </c>
       <c r="Z85" s="12"/>
-      <c r="AA85" s="15"/>
+      <c r="AA85" s="13"/>
       <c r="AB85" s="7"/>
       <c r="AC85" s="7" t="s">
         <v>99</v>
@@ -3898,7 +3889,7 @@
         <v>82</v>
       </c>
       <c r="Z86" s="12"/>
-      <c r="AA86" s="15"/>
+      <c r="AA86" s="13"/>
       <c r="AB86" s="7"/>
       <c r="AC86" s="7" t="s">
         <v>100</v>
@@ -3924,7 +3915,7 @@
         <v>83</v>
       </c>
       <c r="Z87" s="12"/>
-      <c r="AA87" s="15"/>
+      <c r="AA87" s="13"/>
       <c r="AB87" s="7"/>
       <c r="AC87" s="7" t="s">
         <v>3</v>
@@ -3952,7 +3943,7 @@
       <c r="Z88" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AA88" s="15"/>
+      <c r="AA88" s="13"/>
       <c r="AB88" s="7" t="s">
         <v>3</v>
       </c>
@@ -3980,7 +3971,7 @@
         <v>85</v>
       </c>
       <c r="Z89" s="12"/>
-      <c r="AA89" s="15" t="s">
+      <c r="AA89" s="13" t="s">
         <v>104</v>
       </c>
       <c r="AB89" s="7" t="s">
@@ -4010,11 +4001,11 @@
         <v>86</v>
       </c>
       <c r="Z90" s="12"/>
-      <c r="AA90" s="15"/>
-      <c r="AB90" s="19" t="s">
+      <c r="AA90" s="13"/>
+      <c r="AB90" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AC90" s="19"/>
+      <c r="AC90" s="14"/>
       <c r="AD90" s="7"/>
       <c r="AH90" s="7"/>
       <c r="AI90" s="7" t="s">
@@ -4036,11 +4027,11 @@
         <v>87</v>
       </c>
       <c r="Z91" s="12"/>
-      <c r="AA91" s="15"/>
-      <c r="AB91" s="19" t="s">
+      <c r="AA91" s="13"/>
+      <c r="AB91" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AC91" s="19"/>
+      <c r="AC91" s="14"/>
       <c r="AD91" s="7" t="s">
         <v>3</v>
       </c>
@@ -4064,12 +4055,12 @@
         <v>88</v>
       </c>
       <c r="Z92" s="12"/>
-      <c r="AA92" s="15"/>
-      <c r="AB92" s="20" t="s">
+      <c r="AA92" s="13"/>
+      <c r="AB92" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AC92" s="20"/>
-      <c r="AD92" s="20"/>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
       <c r="AH92" s="7"/>
       <c r="AI92" s="7" t="s">
         <v>98</v>
@@ -4090,7 +4081,7 @@
         <v>89</v>
       </c>
       <c r="Z93" s="12"/>
-      <c r="AA93" s="15"/>
+      <c r="AA93" s="13"/>
       <c r="AE93" s="7"/>
       <c r="AF93" s="9" t="s">
         <v>41</v>
@@ -4116,7 +4107,7 @@
         <v>90</v>
       </c>
       <c r="Z94" s="12"/>
-      <c r="AA94" s="15"/>
+      <c r="AA94" s="13"/>
       <c r="AE94" s="7"/>
       <c r="AF94" s="7" t="s">
         <v>42</v>
@@ -4142,7 +4133,7 @@
         <v>91</v>
       </c>
       <c r="Z95" s="12"/>
-      <c r="AA95" s="15"/>
+      <c r="AA95" s="13"/>
       <c r="AE95" s="7"/>
       <c r="AF95" s="7" t="s">
         <v>43</v>
@@ -4170,7 +4161,7 @@
       <c r="Z96" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AA96" s="15"/>
+      <c r="AA96" s="13"/>
       <c r="AE96" s="7"/>
       <c r="AF96" s="7" t="s">
         <v>44</v>
@@ -4198,7 +4189,7 @@
         <v>93</v>
       </c>
       <c r="Z97" s="12"/>
-      <c r="AA97" s="15" t="s">
+      <c r="AA97" s="13" t="s">
         <v>105</v>
       </c>
       <c r="AE97" s="7"/>
@@ -4228,16 +4219,16 @@
         <v>94</v>
       </c>
       <c r="Z98" s="12"/>
-      <c r="AA98" s="15"/>
+      <c r="AA98" s="13"/>
       <c r="AE98" s="7"/>
       <c r="AF98" s="7" t="s">
         <v>91</v>
       </c>
       <c r="AG98" s="7"/>
-      <c r="AH98" s="19" t="s">
+      <c r="AH98" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AI98" s="19"/>
+      <c r="AI98" s="14"/>
       <c r="AJ98" s="7"/>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.45">
@@ -4254,16 +4245,16 @@
         <v>95</v>
       </c>
       <c r="Z99" s="12"/>
-      <c r="AA99" s="15"/>
+      <c r="AA99" s="13"/>
       <c r="AE99" s="7"/>
       <c r="AF99" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AG99" s="7"/>
-      <c r="AH99" s="19" t="s">
+      <c r="AH99" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AI99" s="19"/>
+      <c r="AI99" s="14"/>
       <c r="AJ99" s="7" t="s">
         <v>3</v>
       </c>
@@ -4282,17 +4273,17 @@
         <v>96</v>
       </c>
       <c r="Z100" s="12"/>
-      <c r="AA100" s="15"/>
+      <c r="AA100" s="13"/>
       <c r="AE100" s="7"/>
       <c r="AF100" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AG100" s="7"/>
-      <c r="AH100" s="21" t="s">
+      <c r="AH100" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AI100" s="21"/>
-      <c r="AJ100" s="21"/>
+      <c r="AI100" s="16"/>
+      <c r="AJ100" s="16"/>
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
@@ -4308,7 +4299,7 @@
         <v>97</v>
       </c>
       <c r="Z101" s="12"/>
-      <c r="AA101" s="15"/>
+      <c r="AA101" s="13"/>
       <c r="AE101" s="7"/>
       <c r="AF101" s="7" t="s">
         <v>99</v>
@@ -4334,7 +4325,7 @@
         <v>98</v>
       </c>
       <c r="Z102" s="12"/>
-      <c r="AA102" s="15"/>
+      <c r="AA102" s="13"/>
       <c r="AE102" s="7"/>
       <c r="AF102" s="7" t="s">
         <v>100</v>
@@ -4360,7 +4351,7 @@
         <v>99</v>
       </c>
       <c r="Z103" s="12"/>
-      <c r="AA103" s="15"/>
+      <c r="AA103" s="13"/>
       <c r="AE103" s="7"/>
       <c r="AF103" s="7" t="s">
         <v>3</v>
@@ -4388,7 +4379,7 @@
       <c r="Z104" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AA104" s="15"/>
+      <c r="AA104" s="13"/>
       <c r="AE104" s="7" t="s">
         <v>3</v>
       </c>
@@ -4416,7 +4407,7 @@
         <v>101</v>
       </c>
       <c r="Z105" s="12"/>
-      <c r="AA105" s="15" t="s">
+      <c r="AA105" s="13" t="s">
         <v>106</v>
       </c>
       <c r="AE105" s="7" t="s">
@@ -4446,11 +4437,11 @@
         <v>102</v>
       </c>
       <c r="Z106" s="12"/>
-      <c r="AA106" s="15"/>
-      <c r="AE106" s="19" t="s">
+      <c r="AA106" s="13"/>
+      <c r="AE106" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AF106" s="19"/>
+      <c r="AF106" s="14"/>
       <c r="AG106" s="7"/>
       <c r="AK106" s="7"/>
       <c r="AL106" s="7" t="s">
@@ -4460,11 +4451,11 @@
     </row>
     <row r="107" spans="1:39" x14ac:dyDescent="0.45">
       <c r="Z107" s="12"/>
-      <c r="AA107" s="15"/>
-      <c r="AE107" s="19" t="s">
+      <c r="AA107" s="13"/>
+      <c r="AE107" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AF107" s="19"/>
+      <c r="AF107" s="14"/>
       <c r="AG107" s="7" t="s">
         <v>3</v>
       </c>
@@ -4476,12 +4467,12 @@
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.45">
       <c r="Z108" s="12"/>
-      <c r="AA108" s="15"/>
-      <c r="AE108" s="19" t="s">
+      <c r="AA108" s="13"/>
+      <c r="AE108" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AF108" s="19"/>
-      <c r="AG108" s="19"/>
+      <c r="AF108" s="14"/>
+      <c r="AG108" s="14"/>
       <c r="AK108" s="7"/>
       <c r="AL108" s="7" t="s">
         <v>98</v>
@@ -4490,7 +4481,7 @@
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.45">
       <c r="Z109" s="12"/>
-      <c r="AA109" s="15"/>
+      <c r="AA109" s="13"/>
       <c r="AK109" s="7"/>
       <c r="AL109" s="7" t="s">
         <v>99</v>
@@ -4499,7 +4490,7 @@
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.45">
       <c r="Z110" s="12"/>
-      <c r="AA110" s="15"/>
+      <c r="AA110" s="13"/>
       <c r="AK110" s="7"/>
       <c r="AL110" s="7" t="s">
         <v>100</v>
@@ -4508,7 +4499,7 @@
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.45">
       <c r="Z111" s="12"/>
-      <c r="AA111" s="15"/>
+      <c r="AA111" s="13"/>
       <c r="AK111" s="7"/>
       <c r="AL111" s="7" t="s">
         <v>3</v>
@@ -4519,7 +4510,7 @@
       <c r="Z112" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AA112" s="15"/>
+      <c r="AA112" s="13"/>
       <c r="AK112" s="7" t="s">
         <v>3</v>
       </c>
@@ -4530,7 +4521,7 @@
     </row>
     <row r="113" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z113" s="12"/>
-      <c r="AA113" s="15" t="s">
+      <c r="AA113" s="13" t="s">
         <v>107</v>
       </c>
       <c r="AK113" s="7" t="s">
@@ -4543,72 +4534,133 @@
     </row>
     <row r="114" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z114" s="12"/>
-      <c r="AA114" s="15"/>
-      <c r="AK114" s="19" t="s">
+      <c r="AA114" s="13"/>
+      <c r="AK114" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AL114" s="19"/>
+      <c r="AL114" s="14"/>
       <c r="AM114" s="7"/>
     </row>
     <row r="115" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z115" s="12"/>
-      <c r="AA115" s="15"/>
-      <c r="AK115" s="19" t="s">
+      <c r="AA115" s="13"/>
+      <c r="AK115" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AL115" s="19"/>
+      <c r="AL115" s="14"/>
       <c r="AM115" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z116" s="12"/>
-      <c r="AA116" s="15"/>
-      <c r="AK116" s="19" t="s">
+      <c r="AA116" s="13"/>
+      <c r="AK116" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AL116" s="19"/>
-      <c r="AM116" s="19"/>
+      <c r="AL116" s="14"/>
+      <c r="AM116" s="14"/>
     </row>
     <row r="117" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z117" s="12"/>
-      <c r="AA117" s="15"/>
+      <c r="AA117" s="13"/>
     </row>
     <row r="118" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z118" s="12"/>
-      <c r="AA118" s="15"/>
+      <c r="AA118" s="13"/>
     </row>
     <row r="119" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z119" s="12"/>
-      <c r="AA119" s="15"/>
+      <c r="AA119" s="13"/>
     </row>
     <row r="120" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="AA120" s="15"/>
+      <c r="AA120" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="Z96:Z103"/>
-    <mergeCell ref="Z104:Z111"/>
-    <mergeCell ref="Z112:Z119"/>
-    <mergeCell ref="AA89:AA96"/>
-    <mergeCell ref="AA97:AA104"/>
-    <mergeCell ref="AA105:AA112"/>
-    <mergeCell ref="AA113:AA120"/>
-    <mergeCell ref="AE107:AF107"/>
-    <mergeCell ref="AE108:AG108"/>
-    <mergeCell ref="AK114:AL114"/>
-    <mergeCell ref="AK115:AL115"/>
-    <mergeCell ref="AK116:AM116"/>
-    <mergeCell ref="AB92:AD92"/>
-    <mergeCell ref="AH98:AI98"/>
-    <mergeCell ref="AH99:AI99"/>
-    <mergeCell ref="AH100:AJ100"/>
-    <mergeCell ref="AE106:AF106"/>
-    <mergeCell ref="AK82:AL82"/>
-    <mergeCell ref="AK83:AL83"/>
-    <mergeCell ref="AK84:AM84"/>
-    <mergeCell ref="AB90:AC90"/>
-    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z1:AM1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="F43:M43"/>
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="O21:V21"/>
+    <mergeCell ref="O22:V22"/>
+    <mergeCell ref="O23:V23"/>
+    <mergeCell ref="O24:V24"/>
+    <mergeCell ref="O25:V25"/>
+    <mergeCell ref="O16:V16"/>
+    <mergeCell ref="O17:V17"/>
+    <mergeCell ref="O18:V18"/>
+    <mergeCell ref="O19:V19"/>
+    <mergeCell ref="O20:V20"/>
+    <mergeCell ref="O41:V41"/>
+    <mergeCell ref="O42:V42"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="O27:V27"/>
+    <mergeCell ref="O28:V28"/>
+    <mergeCell ref="O29:V29"/>
+    <mergeCell ref="O30:V30"/>
+    <mergeCell ref="O31:V31"/>
+    <mergeCell ref="O32:V32"/>
+    <mergeCell ref="O33:V33"/>
+    <mergeCell ref="O34:V34"/>
+    <mergeCell ref="O35:V35"/>
+    <mergeCell ref="Z80:Z87"/>
+    <mergeCell ref="AA65:AA72"/>
+    <mergeCell ref="AA73:AA80"/>
+    <mergeCell ref="AA81:AA88"/>
+    <mergeCell ref="AB59:AC59"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="Z88:Z95"/>
+    <mergeCell ref="Z24:Z31"/>
+    <mergeCell ref="Z32:Z39"/>
+    <mergeCell ref="Z40:Z47"/>
+    <mergeCell ref="Z48:Z55"/>
+    <mergeCell ref="Z56:Z63"/>
+    <mergeCell ref="AA25:AA32"/>
+    <mergeCell ref="AA33:AA40"/>
+    <mergeCell ref="AA41:AA48"/>
+    <mergeCell ref="AA49:AA56"/>
+    <mergeCell ref="AA57:AA64"/>
     <mergeCell ref="AE75:AF75"/>
     <mergeCell ref="AE76:AG76"/>
     <mergeCell ref="AH66:AI66"/>
@@ -4633,89 +4685,28 @@
     <mergeCell ref="O46:X46"/>
     <mergeCell ref="O43:V43"/>
     <mergeCell ref="O44:V44"/>
-    <mergeCell ref="Z80:Z87"/>
-    <mergeCell ref="AA65:AA72"/>
-    <mergeCell ref="AA73:AA80"/>
-    <mergeCell ref="AA81:AA88"/>
-    <mergeCell ref="AB59:AC59"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="Z88:Z95"/>
-    <mergeCell ref="Z24:Z31"/>
-    <mergeCell ref="Z32:Z39"/>
-    <mergeCell ref="Z40:Z47"/>
-    <mergeCell ref="Z48:Z55"/>
-    <mergeCell ref="Z56:Z63"/>
-    <mergeCell ref="AA25:AA32"/>
-    <mergeCell ref="AA33:AA40"/>
-    <mergeCell ref="AA41:AA48"/>
-    <mergeCell ref="AA49:AA56"/>
-    <mergeCell ref="AA57:AA64"/>
-    <mergeCell ref="O41:V41"/>
-    <mergeCell ref="O42:V42"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="O27:V27"/>
-    <mergeCell ref="O28:V28"/>
-    <mergeCell ref="O29:V29"/>
-    <mergeCell ref="O30:V30"/>
-    <mergeCell ref="O31:V31"/>
-    <mergeCell ref="O32:V32"/>
-    <mergeCell ref="O33:V33"/>
-    <mergeCell ref="O34:V34"/>
-    <mergeCell ref="O35:V35"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="O21:V21"/>
-    <mergeCell ref="O22:V22"/>
-    <mergeCell ref="O23:V23"/>
-    <mergeCell ref="O24:V24"/>
-    <mergeCell ref="O25:V25"/>
-    <mergeCell ref="O16:V16"/>
-    <mergeCell ref="O17:V17"/>
-    <mergeCell ref="O18:V18"/>
-    <mergeCell ref="O19:V19"/>
-    <mergeCell ref="O20:V20"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="F43:M43"/>
-    <mergeCell ref="F44:M44"/>
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="Z1:AM1"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="AK114:AL114"/>
+    <mergeCell ref="AK115:AL115"/>
+    <mergeCell ref="AK116:AM116"/>
+    <mergeCell ref="AB92:AD92"/>
+    <mergeCell ref="AH98:AI98"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="AH100:AJ100"/>
+    <mergeCell ref="AE106:AF106"/>
+    <mergeCell ref="AK82:AL82"/>
+    <mergeCell ref="AK83:AL83"/>
+    <mergeCell ref="AK84:AM84"/>
+    <mergeCell ref="AB90:AC90"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z96:Z103"/>
+    <mergeCell ref="Z104:Z111"/>
+    <mergeCell ref="Z112:Z119"/>
+    <mergeCell ref="AA89:AA96"/>
+    <mergeCell ref="AA97:AA104"/>
+    <mergeCell ref="AA105:AA112"/>
+    <mergeCell ref="AA113:AA120"/>
+    <mergeCell ref="AE107:AF107"/>
+    <mergeCell ref="AE108:AG108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/YM2151_pipeline.xlsx
+++ b/resources/YM2151_pipeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiki1\Documents\GitHub\IKA2151\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F2E3A1-F7DE-4286-B62E-603BBF97AB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D924623-9F47-4536-88DD-807AB9CF980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21FA489F-99A7-4423-AACC-AAA6225B3652}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="139">
   <si>
     <t>cycles</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,7 +580,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +607,29 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -677,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,13 +725,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -723,19 +740,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -744,7 +752,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26F0356-A14C-4D6F-8D86-37D3D942B4BC}">
   <dimension ref="A1:AO120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="W45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO89" sqref="AO89:AO104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1103,50 +1138,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Z1" s="12" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Z1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1305,12 +1340,12 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -1325,12 +1360,12 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -1345,12 +1380,12 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1368,13 +1403,13 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -1389,13 +1424,13 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -1410,13 +1445,13 @@
       <c r="D10" s="1">
         <v>6</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
       <c r="V10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1434,13 +1469,13 @@
       <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
       <c r="O11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1461,13 +1496,13 @@
       <c r="D12" s="1">
         <v>8</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1477,13 +1512,13 @@
       <c r="O12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
       <c r="V12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1501,13 +1536,13 @@
       <c r="D13" s="1">
         <v>9</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1517,14 +1552,14 @@
       <c r="M13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
       <c r="U13" s="3" t="s">
         <v>138</v>
       </c>
@@ -1545,28 +1580,28 @@
       <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,30 +1622,30 @@
       <c r="D15" s="1">
         <v>11</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -1625,28 +1660,28 @@
       <c r="D16" s="1">
         <v>12</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
       <c r="M16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
@@ -1661,28 +1696,28 @@
       <c r="D17" s="1">
         <v>13</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
       <c r="M17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
+      <c r="O17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
@@ -1697,28 +1732,28 @@
       <c r="D18" s="1">
         <v>14</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
       <c r="M18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
+      <c r="O18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
@@ -1733,28 +1768,28 @@
       <c r="D19" s="1">
         <v>15</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O19" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
+      <c r="O19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
@@ -1769,28 +1804,28 @@
       <c r="D20" s="1">
         <v>16</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
       <c r="M20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
+      <c r="O20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -1805,26 +1840,26 @@
       <c r="D21" s="1">
         <v>17</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="O21" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="O21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -1839,26 +1874,26 @@
       <c r="D22" s="1">
         <v>18</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="O22" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="O22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
@@ -1873,26 +1908,26 @@
       <c r="D23" s="1">
         <v>19</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="O23" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
+      <c r="F23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="O23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -1907,27 +1942,27 @@
       <c r="D24" s="1">
         <v>20</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="O24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="Z24" s="12" t="s">
+      <c r="F24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="O24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="Z24" s="10" t="s">
         <v>93</v>
       </c>
       <c r="AB24" s="1"/>
@@ -1948,28 +1983,28 @@
       <c r="D25" s="1">
         <v>21</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="O25" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="13" t="s">
+      <c r="F25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="O25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="11" t="s">
         <v>104</v>
       </c>
       <c r="AB25" s="1"/>
@@ -1990,28 +2025,28 @@
       <c r="D26" s="1">
         <v>22</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="O26" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="13"/>
+      <c r="F26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="O26" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="11"/>
       <c r="AB26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AH26" s="1"/>
@@ -2030,28 +2065,28 @@
       <c r="D27" s="1">
         <v>23</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="O27" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="13"/>
+      <c r="F27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="O27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="11"/>
       <c r="AB27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AH27" s="1"/>
@@ -2070,28 +2105,28 @@
       <c r="D28" s="1">
         <v>24</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="O28" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="13"/>
+      <c r="F28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="O28" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="11"/>
       <c r="AB28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AH28" s="1"/>
@@ -2110,28 +2145,28 @@
       <c r="D29" s="1">
         <v>25</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="O29" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="13"/>
+      <c r="F29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="O29" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="11"/>
       <c r="AB29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AH29" s="1"/>
@@ -2150,28 +2185,28 @@
       <c r="D30" s="1">
         <v>26</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="O30" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="13"/>
+      <c r="F30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="O30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="11"/>
       <c r="AB30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AH30" s="1"/>
@@ -2190,28 +2225,28 @@
       <c r="D31" s="1">
         <v>27</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="O31" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="13"/>
+      <c r="F31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="O31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="11"/>
       <c r="AB31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AH31" s="1"/>
@@ -2230,30 +2265,30 @@
       <c r="D32" s="1">
         <v>28</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="O32" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="Z32" s="12" t="s">
+      <c r="F32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="O32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="Z32" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AA32" s="13"/>
+      <c r="AA32" s="11"/>
       <c r="AB32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AH32" s="1"/>
@@ -2272,28 +2307,28 @@
       <c r="D33" s="1">
         <v>29</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="O33" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="13" t="s">
+      <c r="F33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="O33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="11" t="s">
         <v>105</v>
       </c>
       <c r="AB33" s="1"/>
@@ -2314,28 +2349,28 @@
       <c r="D34" s="1">
         <v>30</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="O34" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="13"/>
+      <c r="F34" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="O34" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="11"/>
       <c r="AB34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AH34" s="1"/>
@@ -2354,28 +2389,28 @@
       <c r="D35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="O35" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="13"/>
+      <c r="F35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="O35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="11"/>
       <c r="AB35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AH35" s="1"/>
@@ -2394,28 +2429,28 @@
       <c r="D36" s="1">
         <v>32</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="O36" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="13"/>
+      <c r="F36" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="O36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="11"/>
       <c r="AB36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AH36" s="1"/>
@@ -2434,28 +2469,28 @@
       <c r="D37" s="1">
         <v>33</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="O37" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="13"/>
+      <c r="F37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="O37" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="11"/>
       <c r="AB37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AH37" s="1"/>
@@ -2474,28 +2509,28 @@
       <c r="D38" s="1">
         <v>34</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="O38" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="13"/>
+      <c r="F38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="O38" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="11"/>
       <c r="AB38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AH38" s="1"/>
@@ -2514,28 +2549,28 @@
       <c r="D39" s="1">
         <v>35</v>
       </c>
-      <c r="F39" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="O39" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="13"/>
+      <c r="F39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="O39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="11"/>
       <c r="AB39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AH39" s="1"/>
@@ -2554,30 +2589,30 @@
       <c r="D40" s="1">
         <v>36</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="O40" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="Z40" s="12" t="s">
+      <c r="F40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="O40" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="Z40" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AA40" s="13"/>
+      <c r="AA40" s="11"/>
       <c r="AB40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AH40" s="1"/>
@@ -2596,28 +2631,28 @@
       <c r="D41" s="1">
         <v>37</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="O41" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="13" t="s">
+      <c r="F41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="O41" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="11" t="s">
         <v>106</v>
       </c>
       <c r="AB41" s="1"/>
@@ -2638,28 +2673,28 @@
       <c r="D42" s="1">
         <v>38</v>
       </c>
-      <c r="F42" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="O42" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="13"/>
+      <c r="F42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="O42" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="11"/>
       <c r="AB42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AH42" s="1"/>
@@ -2678,28 +2713,28 @@
       <c r="D43" s="1">
         <v>39</v>
       </c>
-      <c r="F43" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="O43" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="13"/>
+      <c r="F43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="O43" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="11"/>
       <c r="AB43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AH43" s="1"/>
@@ -2718,32 +2753,32 @@
       <c r="D44" s="1">
         <v>40</v>
       </c>
-      <c r="F44" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="O44" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="12" t="s">
+      <c r="F44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="O44" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="X44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="13"/>
+      <c r="X44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="11"/>
       <c r="AB44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AH44" s="1"/>
@@ -2770,24 +2805,25 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-      <c r="O45" s="12" t="s">
+      <c r="O45" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1" t="s">
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="AD45" s="17"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -2810,24 +2846,25 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="O46" s="12" t="s">
+      <c r="O46" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Z46" s="12"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1" t="s">
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="AD46" s="17"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
@@ -2850,24 +2887,25 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
-      <c r="O47" s="12" t="s">
+      <c r="O47" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Z47" s="12"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1" t="s">
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17" t="s">
         <v>43</v>
       </c>
+      <c r="AD47" s="17"/>
     </row>
     <row r="48" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -2890,14 +2928,15 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
-      <c r="Z48" s="12" t="s">
+      <c r="Z48" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1" t="s">
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17" t="s">
         <v>44</v>
       </c>
+      <c r="AD48" s="17"/>
     </row>
     <row r="49" spans="1:41" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -2920,14 +2959,15 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="13" t="s">
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1" t="s">
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="17" t="s">
         <v>90</v>
       </c>
+      <c r="AD49" s="17"/>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -2950,12 +2990,13 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1" t="s">
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="17"/>
+      <c r="AC50" s="17" t="s">
         <v>91</v>
       </c>
+      <c r="AD50" s="17"/>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
@@ -2978,12 +3019,13 @@
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1" t="s">
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17" t="s">
         <v>92</v>
       </c>
+      <c r="AD51" s="17"/>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
@@ -2998,12 +3040,13 @@
       <c r="D52" s="1">
         <v>48</v>
       </c>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1" t="s">
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="17"/>
+      <c r="AC52" s="17" t="s">
         <v>98</v>
       </c>
+      <c r="AD52" s="17"/>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
@@ -3018,16 +3061,18 @@
       <c r="D53" s="1">
         <v>49</v>
       </c>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1" t="s">
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1" t="s">
+      <c r="AD53" s="17"/>
+      <c r="AH53" s="17"/>
+      <c r="AI53" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="AJ53" s="17"/>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
@@ -3042,16 +3087,18 @@
       <c r="D54" s="1">
         <v>50</v>
       </c>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="13"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1" t="s">
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1" t="s">
+      <c r="AD54" s="17"/>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="AJ54" s="17"/>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
@@ -3066,16 +3113,18 @@
       <c r="D55" s="1">
         <v>51</v>
       </c>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1" t="s">
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="17"/>
+      <c r="AC55" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD55" s="17"/>
+      <c r="AH55" s="17"/>
+      <c r="AI55" s="17" t="s">
         <v>43</v>
       </c>
+      <c r="AJ55" s="17"/>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
@@ -3090,20 +3139,22 @@
       <c r="D56" s="1">
         <v>52</v>
       </c>
-      <c r="Z56" s="12" t="s">
+      <c r="Z56" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1" t="s">
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC56" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD56" s="17"/>
+      <c r="AH56" s="17"/>
+      <c r="AI56" s="17" t="s">
         <v>44</v>
       </c>
+      <c r="AJ56" s="17"/>
     </row>
     <row r="57" spans="1:41" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -3118,20 +3169,22 @@
       <c r="D57" s="1">
         <v>53</v>
       </c>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="13" t="s">
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AB57" s="1" t="s">
+      <c r="AB57" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AC57" s="1" t="s">
+      <c r="AC57" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1" t="s">
+      <c r="AD57" s="17"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17" t="s">
         <v>90</v>
       </c>
+      <c r="AJ57" s="17"/>
       <c r="AO57" s="1" t="s">
         <v>130</v>
       </c>
@@ -3149,16 +3202,18 @@
       <c r="D58" s="1">
         <v>54</v>
       </c>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="12" t="s">
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="AC58" s="12"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1" t="s">
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="17"/>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="17" t="s">
         <v>91</v>
       </c>
+      <c r="AJ58" s="17"/>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
@@ -3173,19 +3228,20 @@
       <c r="D59" s="1">
         <v>55</v>
       </c>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="13"/>
-      <c r="AB59" s="12" t="s">
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="AC59" s="12"/>
-      <c r="AD59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="1" t="s">
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH59" s="17"/>
+      <c r="AI59" s="17" t="s">
         <v>92</v>
       </c>
+      <c r="AJ59" s="17"/>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
@@ -3200,17 +3256,18 @@
       <c r="D60" s="1">
         <v>56</v>
       </c>
-      <c r="Z60" s="12"/>
-      <c r="AA60" s="13"/>
-      <c r="AB60" s="22" t="s">
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1" t="s">
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="17" t="s">
         <v>98</v>
       </c>
+      <c r="AJ60" s="17"/>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
@@ -3225,16 +3282,17 @@
       <c r="D61" s="1">
         <v>57</v>
       </c>
-      <c r="Z61" s="12"/>
-      <c r="AA61" s="13"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="11"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1" t="s">
+      <c r="AH61" s="17"/>
+      <c r="AI61" s="17" t="s">
         <v>99</v>
       </c>
+      <c r="AJ61" s="17"/>
       <c r="AK61" s="1"/>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.45">
@@ -3250,16 +3308,17 @@
       <c r="D62" s="1">
         <v>58</v>
       </c>
-      <c r="Z62" s="12"/>
-      <c r="AA62" s="13"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="11"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AH62" s="1"/>
-      <c r="AI62" s="1" t="s">
+      <c r="AH62" s="17"/>
+      <c r="AI62" s="17" t="s">
         <v>100</v>
       </c>
+      <c r="AJ62" s="17"/>
       <c r="AK62" s="1"/>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.45">
@@ -3275,16 +3334,17 @@
       <c r="D63" s="1">
         <v>59</v>
       </c>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="13"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="11"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="AH63" s="17"/>
+      <c r="AI63" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ63" s="17"/>
       <c r="AK63" s="1"/>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.45">
@@ -3300,20 +3360,21 @@
       <c r="D64" s="1">
         <v>60</v>
       </c>
-      <c r="Z64" s="12" t="s">
+      <c r="Z64" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AA64" s="13"/>
+      <c r="AA64" s="11"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AH64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI64" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="AH64" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI64" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ64" s="17"/>
       <c r="AK64" s="1"/>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.45">
@@ -3329,20 +3390,21 @@
       <c r="D65" s="1">
         <v>61</v>
       </c>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="13" t="s">
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="11" t="s">
         <v>105</v>
       </c>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AH65" s="1" t="s">
+      <c r="AH65" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AI65" s="1" t="s">
+      <c r="AI65" s="17" t="s">
         <v>101</v>
       </c>
+      <c r="AJ65" s="17"/>
       <c r="AK65" s="1"/>
       <c r="AO65" s="1" t="s">
         <v>131</v>
@@ -3361,16 +3423,17 @@
       <c r="D66" s="1">
         <v>62</v>
       </c>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="13"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="11"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH66" s="12" t="s">
+      <c r="AH66" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="AI66" s="12"/>
+      <c r="AI66" s="18"/>
+      <c r="AJ66" s="17"/>
       <c r="AK66" s="1"/>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.45">
@@ -3386,17 +3449,17 @@
       <c r="D67" s="1">
         <v>63</v>
       </c>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="13"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="11"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH67" s="12" t="s">
+      <c r="AH67" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="AI67" s="12"/>
-      <c r="AJ67" s="1" t="s">
+      <c r="AI67" s="18"/>
+      <c r="AJ67" s="17" t="s">
         <v>3</v>
       </c>
       <c r="AK67" s="1"/>
@@ -3414,17 +3477,17 @@
       <c r="D68" s="1">
         <v>64</v>
       </c>
-      <c r="Z68" s="12"/>
-      <c r="AA68" s="13"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="11"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AH68" s="19" t="s">
+      <c r="AH68" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AI68" s="19"/>
-      <c r="AJ68" s="19"/>
+      <c r="AI68" s="20"/>
+      <c r="AJ68" s="20"/>
       <c r="AK68" s="1"/>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.45">
@@ -3440,8 +3503,8 @@
       <c r="D69" s="1">
         <v>65</v>
       </c>
-      <c r="Z69" s="12"/>
-      <c r="AA69" s="13"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="11"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1" t="s">
         <v>99</v>
@@ -3464,8 +3527,8 @@
       <c r="D70" s="1">
         <v>66</v>
       </c>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="13"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="11"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1" t="s">
         <v>100</v>
@@ -3488,8 +3551,8 @@
       <c r="D71" s="1">
         <v>67</v>
       </c>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="13"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="11"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1" t="s">
         <v>3</v>
@@ -3512,10 +3575,10 @@
       <c r="D72" s="1">
         <v>68</v>
       </c>
-      <c r="Z72" s="12" t="s">
+      <c r="Z72" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AA72" s="13"/>
+      <c r="AA72" s="11"/>
       <c r="AE72" s="1" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3603,8 @@
       <c r="D73" s="1">
         <v>69</v>
       </c>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="13" t="s">
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="11" t="s">
         <v>106</v>
       </c>
       <c r="AE73" s="1" t="s">
@@ -3571,12 +3634,12 @@
       <c r="D74" s="1">
         <v>70</v>
       </c>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="13"/>
-      <c r="AE74" s="12" t="s">
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="11"/>
+      <c r="AE74" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AF74" s="12"/>
+      <c r="AF74" s="10"/>
       <c r="AK74" s="1"/>
       <c r="AL74" s="1" t="s">
         <v>91</v>
@@ -3595,12 +3658,12 @@
       <c r="D75" s="1">
         <v>71</v>
       </c>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="13"/>
-      <c r="AE75" s="12" t="s">
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="11"/>
+      <c r="AE75" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AF75" s="12"/>
+      <c r="AF75" s="10"/>
       <c r="AG75" s="1" t="s">
         <v>3</v>
       </c>
@@ -3622,13 +3685,13 @@
       <c r="D76" s="1">
         <v>72</v>
       </c>
-      <c r="Z76" s="12"/>
-      <c r="AA76" s="13"/>
-      <c r="AE76" s="18" t="s">
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="11"/>
+      <c r="AE76" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AF76" s="18"/>
-      <c r="AG76" s="18"/>
+      <c r="AF76" s="14"/>
+      <c r="AG76" s="14"/>
       <c r="AK76" s="1"/>
       <c r="AL76" s="1" t="s">
         <v>98</v>
@@ -3647,13 +3710,13 @@
       <c r="D77" s="1">
         <v>73</v>
       </c>
-      <c r="Z77" s="12"/>
-      <c r="AA77" s="13"/>
-      <c r="AB77" s="7"/>
-      <c r="AC77" s="8" t="s">
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="11"/>
+      <c r="AB77" s="21"/>
+      <c r="AC77" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AD77" s="7"/>
+      <c r="AD77" s="21"/>
       <c r="AK77" s="1"/>
       <c r="AL77" s="1" t="s">
         <v>125</v>
@@ -3672,13 +3735,13 @@
       <c r="D78" s="1">
         <v>74</v>
       </c>
-      <c r="Z78" s="12"/>
-      <c r="AA78" s="13"/>
-      <c r="AB78" s="7"/>
-      <c r="AC78" s="7" t="s">
+      <c r="Z78" s="10"/>
+      <c r="AA78" s="11"/>
+      <c r="AB78" s="21"/>
+      <c r="AC78" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AD78" s="7"/>
+      <c r="AD78" s="21"/>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1" t="s">
         <v>126</v>
@@ -3697,13 +3760,13 @@
       <c r="D79" s="1">
         <v>75</v>
       </c>
-      <c r="Z79" s="12"/>
-      <c r="AA79" s="13"/>
-      <c r="AB79" s="7"/>
-      <c r="AC79" s="7" t="s">
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="11"/>
+      <c r="AB79" s="21"/>
+      <c r="AC79" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD79" s="7"/>
+      <c r="AD79" s="21"/>
       <c r="AK79" s="1"/>
       <c r="AL79" s="1" t="s">
         <v>3</v>
@@ -3722,15 +3785,15 @@
       <c r="D80" s="1">
         <v>76</v>
       </c>
-      <c r="Z80" s="12" t="s">
+      <c r="Z80" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AA80" s="13"/>
-      <c r="AB80" s="7"/>
-      <c r="AC80" s="7" t="s">
+      <c r="AA80" s="11"/>
+      <c r="AB80" s="21"/>
+      <c r="AC80" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AD80" s="7"/>
+      <c r="AD80" s="21"/>
       <c r="AK80" s="1" t="s">
         <v>3</v>
       </c>
@@ -3751,15 +3814,15 @@
       <c r="D81" s="1">
         <v>77</v>
       </c>
-      <c r="Z81" s="12"/>
-      <c r="AA81" s="13" t="s">
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AB81" s="7"/>
-      <c r="AC81" s="7" t="s">
+      <c r="AB81" s="21"/>
+      <c r="AC81" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="AD81" s="7"/>
+      <c r="AD81" s="21"/>
       <c r="AK81" s="1" t="s">
         <v>102</v>
       </c>
@@ -3783,17 +3846,17 @@
       <c r="D82" s="1">
         <v>78</v>
       </c>
-      <c r="Z82" s="12"/>
-      <c r="AA82" s="13"/>
-      <c r="AB82" s="7"/>
-      <c r="AC82" s="7" t="s">
+      <c r="Z82" s="10"/>
+      <c r="AA82" s="11"/>
+      <c r="AB82" s="21"/>
+      <c r="AC82" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="AD82" s="7"/>
-      <c r="AK82" s="12" t="s">
+      <c r="AD82" s="21"/>
+      <c r="AK82" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AL82" s="12"/>
+      <c r="AL82" s="10"/>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
@@ -3808,17 +3871,17 @@
       <c r="D83" s="1">
         <v>79</v>
       </c>
-      <c r="Z83" s="12"/>
-      <c r="AA83" s="13"/>
-      <c r="AB83" s="7"/>
-      <c r="AC83" s="7" t="s">
+      <c r="Z83" s="10"/>
+      <c r="AA83" s="11"/>
+      <c r="AB83" s="21"/>
+      <c r="AC83" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="AD83" s="7"/>
-      <c r="AK83" s="12" t="s">
+      <c r="AD83" s="21"/>
+      <c r="AK83" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AL83" s="12"/>
+      <c r="AL83" s="10"/>
       <c r="AM83" s="1" t="s">
         <v>3</v>
       </c>
@@ -3836,18 +3899,18 @@
       <c r="D84" s="1">
         <v>80</v>
       </c>
-      <c r="Z84" s="12"/>
-      <c r="AA84" s="13"/>
-      <c r="AB84" s="7"/>
-      <c r="AC84" s="7" t="s">
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="11"/>
+      <c r="AB84" s="21"/>
+      <c r="AC84" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="AD84" s="7"/>
-      <c r="AK84" s="17" t="s">
+      <c r="AD84" s="21"/>
+      <c r="AK84" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AL84" s="17"/>
-      <c r="AM84" s="17"/>
+      <c r="AL84" s="13"/>
+      <c r="AM84" s="13"/>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -3862,18 +3925,18 @@
       <c r="D85" s="1">
         <v>81</v>
       </c>
-      <c r="Z85" s="12"/>
-      <c r="AA85" s="13"/>
-      <c r="AB85" s="7"/>
-      <c r="AC85" s="7" t="s">
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="11"/>
+      <c r="AB85" s="21"/>
+      <c r="AC85" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AD85" s="7"/>
-      <c r="AH85" s="7"/>
-      <c r="AI85" s="10" t="s">
+      <c r="AD85" s="21"/>
+      <c r="AH85" s="21"/>
+      <c r="AI85" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AJ85" s="7"/>
+      <c r="AJ85" s="21"/>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
@@ -3888,18 +3951,18 @@
       <c r="D86" s="1">
         <v>82</v>
       </c>
-      <c r="Z86" s="12"/>
-      <c r="AA86" s="13"/>
-      <c r="AB86" s="7"/>
-      <c r="AC86" s="7" t="s">
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="11"/>
+      <c r="AB86" s="21"/>
+      <c r="AC86" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="AD86" s="7"/>
-      <c r="AH86" s="7"/>
-      <c r="AI86" s="7" t="s">
+      <c r="AD86" s="21"/>
+      <c r="AH86" s="21"/>
+      <c r="AI86" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AJ86" s="7"/>
+      <c r="AJ86" s="21"/>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
@@ -3914,18 +3977,18 @@
       <c r="D87" s="1">
         <v>83</v>
       </c>
-      <c r="Z87" s="12"/>
-      <c r="AA87" s="13"/>
-      <c r="AB87" s="7"/>
-      <c r="AC87" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD87" s="7"/>
-      <c r="AH87" s="7"/>
-      <c r="AI87" s="7" t="s">
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="11"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD87" s="21"/>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AJ87" s="7"/>
+      <c r="AJ87" s="21"/>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
@@ -3940,22 +4003,22 @@
       <c r="D88" s="1">
         <v>84</v>
       </c>
-      <c r="Z88" s="12" t="s">
+      <c r="Z88" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AA88" s="13"/>
-      <c r="AB88" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC88" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD88" s="7"/>
-      <c r="AH88" s="7"/>
-      <c r="AI88" s="7" t="s">
+      <c r="AA88" s="11"/>
+      <c r="AB88" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC88" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD88" s="21"/>
+      <c r="AH88" s="21"/>
+      <c r="AI88" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AJ88" s="7"/>
+      <c r="AJ88" s="21"/>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
@@ -3970,22 +4033,25 @@
       <c r="D89" s="1">
         <v>85</v>
       </c>
-      <c r="Z89" s="12"/>
-      <c r="AA89" s="13" t="s">
+      <c r="Z89" s="10"/>
+      <c r="AA89" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AB89" s="7" t="s">
+      <c r="AB89" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="AC89" s="7" t="s">
+      <c r="AC89" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="AD89" s="7"/>
-      <c r="AH89" s="7"/>
-      <c r="AI89" s="7" t="s">
+      <c r="AD89" s="21"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="AJ89" s="7"/>
+      <c r="AJ89" s="21"/>
+      <c r="AO89" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
@@ -4000,18 +4066,18 @@
       <c r="D90" s="1">
         <v>86</v>
       </c>
-      <c r="Z90" s="12"/>
-      <c r="AA90" s="13"/>
-      <c r="AB90" s="14" t="s">
+      <c r="Z90" s="10"/>
+      <c r="AA90" s="11"/>
+      <c r="AB90" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="AC90" s="14"/>
-      <c r="AD90" s="7"/>
-      <c r="AH90" s="7"/>
-      <c r="AI90" s="7" t="s">
+      <c r="AC90" s="23"/>
+      <c r="AD90" s="21"/>
+      <c r="AH90" s="21"/>
+      <c r="AI90" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="AJ90" s="7"/>
+      <c r="AJ90" s="21"/>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
@@ -4026,20 +4092,20 @@
       <c r="D91" s="1">
         <v>87</v>
       </c>
-      <c r="Z91" s="12"/>
-      <c r="AA91" s="13"/>
-      <c r="AB91" s="14" t="s">
+      <c r="Z91" s="10"/>
+      <c r="AA91" s="11"/>
+      <c r="AB91" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="AC91" s="14"/>
-      <c r="AD91" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH91" s="7"/>
-      <c r="AI91" s="7" t="s">
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH91" s="21"/>
+      <c r="AI91" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="AJ91" s="7"/>
+      <c r="AJ91" s="21"/>
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
@@ -4054,18 +4120,18 @@
       <c r="D92" s="1">
         <v>88</v>
       </c>
-      <c r="Z92" s="12"/>
-      <c r="AA92" s="13"/>
-      <c r="AB92" s="15" t="s">
+      <c r="Z92" s="10"/>
+      <c r="AA92" s="11"/>
+      <c r="AB92" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="AC92" s="15"/>
-      <c r="AD92" s="15"/>
-      <c r="AH92" s="7"/>
-      <c r="AI92" s="7" t="s">
+      <c r="AC92" s="24"/>
+      <c r="AD92" s="24"/>
+      <c r="AH92" s="21"/>
+      <c r="AI92" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="AJ92" s="7"/>
+      <c r="AJ92" s="21"/>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
@@ -4080,18 +4146,18 @@
       <c r="D93" s="1">
         <v>89</v>
       </c>
-      <c r="Z93" s="12"/>
-      <c r="AA93" s="13"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="11"/>
       <c r="AE93" s="7"/>
-      <c r="AF93" s="9" t="s">
+      <c r="AF93" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AG93" s="7"/>
-      <c r="AH93" s="7"/>
-      <c r="AI93" s="7" t="s">
+      <c r="AH93" s="21"/>
+      <c r="AI93" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AJ93" s="7"/>
+      <c r="AJ93" s="21"/>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
@@ -4106,18 +4172,18 @@
       <c r="D94" s="1">
         <v>90</v>
       </c>
-      <c r="Z94" s="12"/>
-      <c r="AA94" s="13"/>
+      <c r="Z94" s="10"/>
+      <c r="AA94" s="11"/>
       <c r="AE94" s="7"/>
       <c r="AF94" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AG94" s="7"/>
-      <c r="AH94" s="7"/>
-      <c r="AI94" s="7" t="s">
+      <c r="AH94" s="21"/>
+      <c r="AI94" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="AJ94" s="7"/>
+      <c r="AJ94" s="21"/>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
@@ -4132,18 +4198,18 @@
       <c r="D95" s="1">
         <v>91</v>
       </c>
-      <c r="Z95" s="12"/>
-      <c r="AA95" s="13"/>
+      <c r="Z95" s="10"/>
+      <c r="AA95" s="11"/>
       <c r="AE95" s="7"/>
       <c r="AF95" s="7" t="s">
         <v>43</v>
       </c>
       <c r="AG95" s="7"/>
-      <c r="AH95" s="7"/>
-      <c r="AI95" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ95" s="7"/>
+      <c r="AH95" s="21"/>
+      <c r="AI95" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ95" s="21"/>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
@@ -4158,24 +4224,24 @@
       <c r="D96" s="1">
         <v>92</v>
       </c>
-      <c r="Z96" s="12" t="s">
+      <c r="Z96" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AA96" s="13"/>
+      <c r="AA96" s="11"/>
       <c r="AE96" s="7"/>
       <c r="AF96" s="7" t="s">
         <v>44</v>
       </c>
       <c r="AG96" s="7"/>
-      <c r="AH96" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI96" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ96" s="7"/>
-    </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="AH96" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI96" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ96" s="21"/>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>22</v>
       </c>
@@ -4188,8 +4254,8 @@
       <c r="D97" s="1">
         <v>93</v>
       </c>
-      <c r="Z97" s="12"/>
-      <c r="AA97" s="13" t="s">
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="11" t="s">
         <v>105</v>
       </c>
       <c r="AE97" s="7"/>
@@ -4197,15 +4263,18 @@
         <v>90</v>
       </c>
       <c r="AG97" s="7"/>
-      <c r="AH97" s="7" t="s">
+      <c r="AH97" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="AI97" s="7" t="s">
+      <c r="AI97" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="AJ97" s="7"/>
-    </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="AJ97" s="21"/>
+      <c r="AO97" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>23</v>
       </c>
@@ -4218,20 +4287,20 @@
       <c r="D98" s="1">
         <v>94</v>
       </c>
-      <c r="Z98" s="12"/>
-      <c r="AA98" s="13"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="11"/>
       <c r="AE98" s="7"/>
       <c r="AF98" s="7" t="s">
         <v>91</v>
       </c>
       <c r="AG98" s="7"/>
-      <c r="AH98" s="14" t="s">
+      <c r="AH98" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="AI98" s="14"/>
-      <c r="AJ98" s="7"/>
-    </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="AI98" s="23"/>
+      <c r="AJ98" s="21"/>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>24</v>
       </c>
@@ -4244,22 +4313,22 @@
       <c r="D99" s="1">
         <v>95</v>
       </c>
-      <c r="Z99" s="12"/>
-      <c r="AA99" s="13"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="11"/>
       <c r="AE99" s="7"/>
       <c r="AF99" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AG99" s="7"/>
-      <c r="AH99" s="14" t="s">
+      <c r="AH99" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="AI99" s="14"/>
-      <c r="AJ99" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="AI99" s="23"/>
+      <c r="AJ99" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>25</v>
       </c>
@@ -4272,20 +4341,20 @@
       <c r="D100" s="1">
         <v>96</v>
       </c>
-      <c r="Z100" s="12"/>
-      <c r="AA100" s="13"/>
+      <c r="Z100" s="10"/>
+      <c r="AA100" s="11"/>
       <c r="AE100" s="7"/>
       <c r="AF100" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AG100" s="7"/>
-      <c r="AH100" s="16" t="s">
+      <c r="AH100" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="AI100" s="16"/>
-      <c r="AJ100" s="16"/>
-    </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="AI100" s="26"/>
+      <c r="AJ100" s="26"/>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>26</v>
       </c>
@@ -4298,20 +4367,20 @@
       <c r="D101" s="1">
         <v>97</v>
       </c>
-      <c r="Z101" s="12"/>
-      <c r="AA101" s="13"/>
+      <c r="Z101" s="10"/>
+      <c r="AA101" s="11"/>
       <c r="AE101" s="7"/>
       <c r="AF101" s="7" t="s">
         <v>99</v>
       </c>
       <c r="AG101" s="7"/>
       <c r="AK101" s="7"/>
-      <c r="AL101" s="11" t="s">
+      <c r="AL101" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AM101" s="7"/>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>27</v>
       </c>
@@ -4324,8 +4393,8 @@
       <c r="D102" s="1">
         <v>98</v>
       </c>
-      <c r="Z102" s="12"/>
-      <c r="AA102" s="13"/>
+      <c r="Z102" s="10"/>
+      <c r="AA102" s="11"/>
       <c r="AE102" s="7"/>
       <c r="AF102" s="7" t="s">
         <v>100</v>
@@ -4337,7 +4406,7 @@
       </c>
       <c r="AM102" s="7"/>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>28</v>
       </c>
@@ -4350,8 +4419,8 @@
       <c r="D103" s="1">
         <v>99</v>
       </c>
-      <c r="Z103" s="12"/>
-      <c r="AA103" s="13"/>
+      <c r="Z103" s="10"/>
+      <c r="AA103" s="11"/>
       <c r="AE103" s="7"/>
       <c r="AF103" s="7" t="s">
         <v>3</v>
@@ -4363,7 +4432,7 @@
       </c>
       <c r="AM103" s="7"/>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>29</v>
       </c>
@@ -4376,10 +4445,10 @@
       <c r="D104" s="1">
         <v>100</v>
       </c>
-      <c r="Z104" s="12" t="s">
+      <c r="Z104" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AA104" s="13"/>
+      <c r="AA104" s="11"/>
       <c r="AE104" s="7" t="s">
         <v>3</v>
       </c>
@@ -4393,7 +4462,7 @@
       </c>
       <c r="AM104" s="7"/>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>30</v>
       </c>
@@ -4406,8 +4475,8 @@
       <c r="D105" s="1">
         <v>101</v>
       </c>
-      <c r="Z105" s="12"/>
-      <c r="AA105" s="13" t="s">
+      <c r="Z105" s="10"/>
+      <c r="AA105" s="11" t="s">
         <v>106</v>
       </c>
       <c r="AE105" s="7" t="s">
@@ -4423,7 +4492,7 @@
       </c>
       <c r="AM105" s="7"/>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>31</v>
       </c>
@@ -4436,12 +4505,12 @@
       <c r="D106" s="1">
         <v>102</v>
       </c>
-      <c r="Z106" s="12"/>
-      <c r="AA106" s="13"/>
-      <c r="AE106" s="14" t="s">
+      <c r="Z106" s="10"/>
+      <c r="AA106" s="11"/>
+      <c r="AE106" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AF106" s="14"/>
+      <c r="AF106" s="12"/>
       <c r="AG106" s="7"/>
       <c r="AK106" s="7"/>
       <c r="AL106" s="7" t="s">
@@ -4449,13 +4518,13 @@
       </c>
       <c r="AM106" s="7"/>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="Z107" s="12"/>
-      <c r="AA107" s="13"/>
-      <c r="AE107" s="14" t="s">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="Z107" s="10"/>
+      <c r="AA107" s="11"/>
+      <c r="AE107" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AF107" s="14"/>
+      <c r="AF107" s="12"/>
       <c r="AG107" s="7" t="s">
         <v>3</v>
       </c>
@@ -4465,52 +4534,52 @@
       </c>
       <c r="AM107" s="7"/>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="Z108" s="12"/>
-      <c r="AA108" s="13"/>
-      <c r="AE108" s="14" t="s">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="Z108" s="10"/>
+      <c r="AA108" s="11"/>
+      <c r="AE108" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AF108" s="14"/>
-      <c r="AG108" s="14"/>
+      <c r="AF108" s="12"/>
+      <c r="AG108" s="12"/>
       <c r="AK108" s="7"/>
       <c r="AL108" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AM108" s="7"/>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="Z109" s="12"/>
-      <c r="AA109" s="13"/>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="Z109" s="10"/>
+      <c r="AA109" s="11"/>
       <c r="AK109" s="7"/>
       <c r="AL109" s="7" t="s">
         <v>99</v>
       </c>
       <c r="AM109" s="7"/>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="Z110" s="12"/>
-      <c r="AA110" s="13"/>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="Z110" s="10"/>
+      <c r="AA110" s="11"/>
       <c r="AK110" s="7"/>
       <c r="AL110" s="7" t="s">
         <v>100</v>
       </c>
       <c r="AM110" s="7"/>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="Z111" s="12"/>
-      <c r="AA111" s="13"/>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="Z111" s="10"/>
+      <c r="AA111" s="11"/>
       <c r="AK111" s="7"/>
       <c r="AL111" s="7" t="s">
         <v>3</v>
       </c>
       <c r="AM111" s="7"/>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="Z112" s="12" t="s">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="Z112" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AA112" s="13"/>
+      <c r="AA112" s="11"/>
       <c r="AK112" s="7" t="s">
         <v>3</v>
       </c>
@@ -4520,8 +4589,8 @@
       <c r="AM112" s="7"/>
     </row>
     <row r="113" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z113" s="12"/>
-      <c r="AA113" s="13" t="s">
+      <c r="Z113" s="10"/>
+      <c r="AA113" s="11" t="s">
         <v>107</v>
       </c>
       <c r="AK113" s="7" t="s">
@@ -4533,48 +4602,48 @@
       <c r="AM113" s="7"/>
     </row>
     <row r="114" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z114" s="12"/>
-      <c r="AA114" s="13"/>
-      <c r="AK114" s="14" t="s">
+      <c r="Z114" s="10"/>
+      <c r="AA114" s="11"/>
+      <c r="AK114" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AL114" s="14"/>
+      <c r="AL114" s="12"/>
       <c r="AM114" s="7"/>
     </row>
     <row r="115" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z115" s="12"/>
-      <c r="AA115" s="13"/>
-      <c r="AK115" s="14" t="s">
+      <c r="Z115" s="10"/>
+      <c r="AA115" s="11"/>
+      <c r="AK115" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AL115" s="14"/>
+      <c r="AL115" s="12"/>
       <c r="AM115" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z116" s="12"/>
-      <c r="AA116" s="13"/>
-      <c r="AK116" s="14" t="s">
+      <c r="Z116" s="10"/>
+      <c r="AA116" s="11"/>
+      <c r="AK116" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AL116" s="14"/>
-      <c r="AM116" s="14"/>
+      <c r="AL116" s="12"/>
+      <c r="AM116" s="12"/>
     </row>
     <row r="117" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z117" s="12"/>
-      <c r="AA117" s="13"/>
+      <c r="Z117" s="10"/>
+      <c r="AA117" s="11"/>
     </row>
     <row r="118" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z118" s="12"/>
-      <c r="AA118" s="13"/>
+      <c r="Z118" s="10"/>
+      <c r="AA118" s="11"/>
     </row>
     <row r="119" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z119" s="12"/>
-      <c r="AA119" s="13"/>
+      <c r="Z119" s="10"/>
+      <c r="AA119" s="11"/>
     </row>
     <row r="120" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="AA120" s="13"/>
+      <c r="AA120" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="129">

--- a/resources/YM2151_pipeline.xlsx
+++ b/resources/YM2151_pipeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiki1\Documents\GitHub\IKA2151\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D924623-9F47-4536-88DD-807AB9CF980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08820559-CFB8-4FBE-8ED0-3FD46417DAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21FA489F-99A7-4423-AACC-AAA6225B3652}"/>
   </bookViews>
@@ -731,19 +731,19 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -752,8 +752,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,25 +761,25 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26F0356-A14C-4D6F-8D86-37D3D942B4BC}">
   <dimension ref="A1:AO120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO89" sqref="AO89:AO104"/>
+    <sheetView tabSelected="1" topLeftCell="X45" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR72" sqref="AR72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1138,50 +1138,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="O1" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Z1" s="10" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Z1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1340,12 +1340,12 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -1360,12 +1360,12 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -1380,12 +1380,12 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1403,13 +1403,13 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -1424,13 +1424,13 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -1445,13 +1445,13 @@
       <c r="D10" s="1">
         <v>6</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="V10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1469,13 +1469,13 @@
       <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="O11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1496,13 +1496,13 @@
       <c r="D12" s="1">
         <v>8</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1512,13 +1512,13 @@
       <c r="O12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
       <c r="V12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
-      <c r="Z24" s="10" t="s">
+      <c r="Z24" s="14" t="s">
         <v>93</v>
       </c>
       <c r="AB24" s="1"/>
@@ -2003,8 +2003,8 @@
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="11" t="s">
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="17" t="s">
         <v>104</v>
       </c>
       <c r="AB25" s="1"/>
@@ -2045,8 +2045,8 @@
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="11"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="17"/>
       <c r="AB26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AH26" s="1"/>
@@ -2085,8 +2085,8 @@
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="11"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="17"/>
       <c r="AB27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AH27" s="1"/>
@@ -2125,8 +2125,8 @@
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="11"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="17"/>
       <c r="AB28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AH28" s="1"/>
@@ -2165,8 +2165,8 @@
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="11"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="17"/>
       <c r="AB29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AH29" s="1"/>
@@ -2205,8 +2205,8 @@
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="11"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="17"/>
       <c r="AB30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AH30" s="1"/>
@@ -2245,8 +2245,8 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="11"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="17"/>
       <c r="AB31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AH31" s="1"/>
@@ -2285,10 +2285,10 @@
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
-      <c r="Z32" s="10" t="s">
+      <c r="Z32" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AA32" s="11"/>
+      <c r="AA32" s="17"/>
       <c r="AB32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AH32" s="1"/>
@@ -2327,8 +2327,8 @@
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="11" t="s">
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="17" t="s">
         <v>105</v>
       </c>
       <c r="AB33" s="1"/>
@@ -2369,8 +2369,8 @@
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="11"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="17"/>
       <c r="AB34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AH34" s="1"/>
@@ -2409,8 +2409,8 @@
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="11"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="17"/>
       <c r="AB35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AH35" s="1"/>
@@ -2449,8 +2449,8 @@
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="11"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="17"/>
       <c r="AB36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AH36" s="1"/>
@@ -2489,8 +2489,8 @@
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="11"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="17"/>
       <c r="AB37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AH37" s="1"/>
@@ -2529,8 +2529,8 @@
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="11"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="17"/>
       <c r="AB38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AH38" s="1"/>
@@ -2569,8 +2569,8 @@
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="11"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="17"/>
       <c r="AB39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AH39" s="1"/>
@@ -2609,10 +2609,10 @@
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
-      <c r="Z40" s="10" t="s">
+      <c r="Z40" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AA40" s="11"/>
+      <c r="AA40" s="17"/>
       <c r="AB40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AH40" s="1"/>
@@ -2651,8 +2651,8 @@
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
       <c r="V41" s="16"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="11" t="s">
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="17" t="s">
         <v>106</v>
       </c>
       <c r="AB41" s="1"/>
@@ -2693,8 +2693,8 @@
       <c r="T42" s="16"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="11"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="17"/>
       <c r="AB42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AH42" s="1"/>
@@ -2733,8 +2733,8 @@
       <c r="T43" s="16"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="11"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="17"/>
       <c r="AB43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AH43" s="1"/>
@@ -2773,12 +2773,12 @@
       <c r="T44" s="16"/>
       <c r="U44" s="16"/>
       <c r="V44" s="16"/>
-      <c r="W44" s="10" t="s">
+      <c r="W44" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="X44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="11"/>
+      <c r="X44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="17"/>
       <c r="AB44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AH44" s="1"/>
@@ -2805,25 +2805,25 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-      <c r="O45" s="10" t="s">
+      <c r="O45" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17" t="s">
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AD45" s="17"/>
+      <c r="AD45" s="10"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -2846,25 +2846,25 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="O46" s="10" t="s">
+      <c r="O46" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="17"/>
-      <c r="AC46" s="17" t="s">
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AD46" s="17"/>
+      <c r="AD46" s="10"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
@@ -2887,25 +2887,25 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
-      <c r="O47" s="10" t="s">
+      <c r="O47" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="17"/>
-      <c r="AC47" s="17" t="s">
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AD47" s="17"/>
+      <c r="AD47" s="10"/>
     </row>
     <row r="48" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -2928,15 +2928,15 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
-      <c r="Z48" s="10" t="s">
+      <c r="Z48" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="17"/>
-      <c r="AC48" s="17" t="s">
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AD48" s="17"/>
+      <c r="AD48" s="10"/>
     </row>
     <row r="49" spans="1:41" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -2959,15 +2959,15 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="11" t="s">
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="AB49" s="17"/>
-      <c r="AC49" s="17" t="s">
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AD49" s="17"/>
+      <c r="AD49" s="10"/>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -2990,13 +2990,13 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="17" t="s">
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AD50" s="17"/>
+      <c r="AD50" s="10"/>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
@@ -3019,13 +3019,13 @@
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17" t="s">
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AD51" s="17"/>
+      <c r="AD51" s="10"/>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
@@ -3040,13 +3040,13 @@
       <c r="D52" s="1">
         <v>48</v>
       </c>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17" t="s">
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="17"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AD52" s="17"/>
+      <c r="AD52" s="10"/>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
@@ -3061,18 +3061,18 @@
       <c r="D53" s="1">
         <v>49</v>
       </c>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="17"/>
-      <c r="AC53" s="17" t="s">
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AD53" s="17"/>
-      <c r="AH53" s="17"/>
-      <c r="AI53" s="17" t="s">
+      <c r="AD53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AJ53" s="17"/>
+      <c r="AJ53" s="10"/>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
@@ -3087,18 +3087,18 @@
       <c r="D54" s="1">
         <v>50</v>
       </c>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="17"/>
-      <c r="AC54" s="17" t="s">
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AD54" s="17"/>
-      <c r="AH54" s="17"/>
-      <c r="AI54" s="17" t="s">
+      <c r="AD54" s="10"/>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AJ54" s="17"/>
+      <c r="AJ54" s="10"/>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
@@ -3113,18 +3113,18 @@
       <c r="D55" s="1">
         <v>51</v>
       </c>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="17"/>
-      <c r="AC55" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD55" s="17"/>
-      <c r="AH55" s="17"/>
-      <c r="AI55" s="17" t="s">
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AJ55" s="17"/>
+      <c r="AJ55" s="10"/>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
@@ -3139,22 +3139,22 @@
       <c r="D56" s="1">
         <v>52</v>
       </c>
-      <c r="Z56" s="10" t="s">
+      <c r="Z56" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC56" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD56" s="17"/>
-      <c r="AH56" s="17"/>
-      <c r="AI56" s="17" t="s">
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AJ56" s="17"/>
+      <c r="AJ56" s="10"/>
     </row>
     <row r="57" spans="1:41" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -3169,25 +3169,22 @@
       <c r="D57" s="1">
         <v>53</v>
       </c>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="11" t="s">
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="AB57" s="17" t="s">
+      <c r="AB57" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AC57" s="17" t="s">
+      <c r="AC57" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AD57" s="17"/>
-      <c r="AH57" s="17"/>
-      <c r="AI57" s="17" t="s">
+      <c r="AD57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AJ57" s="17"/>
-      <c r="AO57" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="AJ57" s="10"/>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
@@ -3202,18 +3199,21 @@
       <c r="D58" s="1">
         <v>54</v>
       </c>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="11"/>
+      <c r="Z58" s="14"/>
+      <c r="AA58" s="17"/>
       <c r="AB58" s="18" t="s">
         <v>127</v>
       </c>
       <c r="AC58" s="18"/>
-      <c r="AD58" s="17"/>
-      <c r="AH58" s="17"/>
-      <c r="AI58" s="17" t="s">
+      <c r="AD58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AJ58" s="17"/>
+      <c r="AJ58" s="10"/>
+      <c r="AO58" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
@@ -3228,20 +3228,20 @@
       <c r="D59" s="1">
         <v>55</v>
       </c>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="11"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="17"/>
       <c r="AB59" s="18" t="s">
         <v>128</v>
       </c>
       <c r="AC59" s="18"/>
-      <c r="AD59" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH59" s="17"/>
-      <c r="AI59" s="17" t="s">
+      <c r="AD59" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AJ59" s="17"/>
+      <c r="AJ59" s="10"/>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
@@ -3256,18 +3256,18 @@
       <c r="D60" s="1">
         <v>56</v>
       </c>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="11"/>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="17"/>
       <c r="AB60" s="19" t="s">
         <v>110</v>
       </c>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
-      <c r="AH60" s="17"/>
-      <c r="AI60" s="17" t="s">
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AJ60" s="17"/>
+      <c r="AJ60" s="10"/>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
@@ -3282,17 +3282,17 @@
       <c r="D61" s="1">
         <v>57</v>
       </c>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="11"/>
+      <c r="Z61" s="14"/>
+      <c r="AA61" s="17"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AH61" s="17"/>
-      <c r="AI61" s="17" t="s">
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AJ61" s="17"/>
+      <c r="AJ61" s="10"/>
       <c r="AK61" s="1"/>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.45">
@@ -3308,17 +3308,17 @@
       <c r="D62" s="1">
         <v>58</v>
       </c>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="11"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="17"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AH62" s="17"/>
-      <c r="AI62" s="17" t="s">
+      <c r="AH62" s="10"/>
+      <c r="AI62" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AJ62" s="17"/>
+      <c r="AJ62" s="10"/>
       <c r="AK62" s="1"/>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.45">
@@ -3334,17 +3334,17 @@
       <c r="D63" s="1">
         <v>59</v>
       </c>
-      <c r="Z63" s="10"/>
-      <c r="AA63" s="11"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="17"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH63" s="17"/>
-      <c r="AI63" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ63" s="17"/>
+      <c r="AH63" s="10"/>
+      <c r="AI63" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ63" s="10"/>
       <c r="AK63" s="1"/>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.45">
@@ -3360,21 +3360,21 @@
       <c r="D64" s="1">
         <v>60</v>
       </c>
-      <c r="Z64" s="10" t="s">
+      <c r="Z64" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AA64" s="11"/>
+      <c r="AA64" s="17"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AH64" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI64" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ64" s="17"/>
+      <c r="AH64" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI64" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ64" s="10"/>
       <c r="AK64" s="1"/>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.45">
@@ -3390,25 +3390,22 @@
       <c r="D65" s="1">
         <v>61</v>
       </c>
-      <c r="Z65" s="10"/>
-      <c r="AA65" s="11" t="s">
+      <c r="Z65" s="14"/>
+      <c r="AA65" s="17" t="s">
         <v>105</v>
       </c>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AH65" s="17" t="s">
+      <c r="AH65" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AI65" s="17" t="s">
+      <c r="AI65" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AJ65" s="17"/>
+      <c r="AJ65" s="10"/>
       <c r="AK65" s="1"/>
-      <c r="AO65" s="1" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -3423,8 +3420,8 @@
       <c r="D66" s="1">
         <v>62</v>
       </c>
-      <c r="Z66" s="10"/>
-      <c r="AA66" s="11"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="17"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1" t="s">
         <v>91</v>
@@ -3433,8 +3430,11 @@
         <v>127</v>
       </c>
       <c r="AI66" s="18"/>
-      <c r="AJ66" s="17"/>
+      <c r="AJ66" s="10"/>
       <c r="AK66" s="1"/>
+      <c r="AO66" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
@@ -3449,8 +3449,8 @@
       <c r="D67" s="1">
         <v>63</v>
       </c>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="11"/>
+      <c r="Z67" s="14"/>
+      <c r="AA67" s="17"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1" t="s">
         <v>92</v>
@@ -3459,7 +3459,7 @@
         <v>128</v>
       </c>
       <c r="AI67" s="18"/>
-      <c r="AJ67" s="17" t="s">
+      <c r="AJ67" s="10" t="s">
         <v>3</v>
       </c>
       <c r="AK67" s="1"/>
@@ -3477,17 +3477,17 @@
       <c r="D68" s="1">
         <v>64</v>
       </c>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="11"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="17"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AH68" s="20" t="s">
+      <c r="AH68" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="AI68" s="20"/>
-      <c r="AJ68" s="20"/>
+      <c r="AI68" s="21"/>
+      <c r="AJ68" s="21"/>
       <c r="AK68" s="1"/>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.45">
@@ -3503,8 +3503,8 @@
       <c r="D69" s="1">
         <v>65</v>
       </c>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="11"/>
+      <c r="Z69" s="14"/>
+      <c r="AA69" s="17"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1" t="s">
         <v>99</v>
@@ -3527,8 +3527,8 @@
       <c r="D70" s="1">
         <v>66</v>
       </c>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="11"/>
+      <c r="Z70" s="14"/>
+      <c r="AA70" s="17"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1" t="s">
         <v>100</v>
@@ -3551,8 +3551,8 @@
       <c r="D71" s="1">
         <v>67</v>
       </c>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="11"/>
+      <c r="Z71" s="14"/>
+      <c r="AA71" s="17"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1" t="s">
         <v>3</v>
@@ -3575,10 +3575,10 @@
       <c r="D72" s="1">
         <v>68</v>
       </c>
-      <c r="Z72" s="10" t="s">
+      <c r="Z72" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AA72" s="11"/>
+      <c r="AA72" s="17"/>
       <c r="AE72" s="1" t="s">
         <v>3</v>
       </c>
@@ -3603,8 +3603,8 @@
       <c r="D73" s="1">
         <v>69</v>
       </c>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="11" t="s">
+      <c r="Z73" s="14"/>
+      <c r="AA73" s="17" t="s">
         <v>106</v>
       </c>
       <c r="AE73" s="1" t="s">
@@ -3617,9 +3617,6 @@
       <c r="AL73" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AO73" s="1" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
@@ -3634,16 +3631,19 @@
       <c r="D74" s="1">
         <v>70</v>
       </c>
-      <c r="Z74" s="10"/>
-      <c r="AA74" s="11"/>
-      <c r="AE74" s="10" t="s">
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="17"/>
+      <c r="AE74" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AF74" s="10"/>
+      <c r="AF74" s="14"/>
       <c r="AK74" s="1"/>
       <c r="AL74" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="AO74" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -3658,12 +3658,12 @@
       <c r="D75" s="1">
         <v>71</v>
       </c>
-      <c r="Z75" s="10"/>
-      <c r="AA75" s="11"/>
-      <c r="AE75" s="10" t="s">
+      <c r="Z75" s="14"/>
+      <c r="AA75" s="17"/>
+      <c r="AE75" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AF75" s="10"/>
+      <c r="AF75" s="14"/>
       <c r="AG75" s="1" t="s">
         <v>3</v>
       </c>
@@ -3685,13 +3685,13 @@
       <c r="D76" s="1">
         <v>72</v>
       </c>
-      <c r="Z76" s="10"/>
-      <c r="AA76" s="11"/>
-      <c r="AE76" s="14" t="s">
+      <c r="Z76" s="14"/>
+      <c r="AA76" s="17"/>
+      <c r="AE76" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AF76" s="14"/>
-      <c r="AG76" s="14"/>
+      <c r="AF76" s="20"/>
+      <c r="AG76" s="20"/>
       <c r="AK76" s="1"/>
       <c r="AL76" s="1" t="s">
         <v>98</v>
@@ -3710,13 +3710,13 @@
       <c r="D77" s="1">
         <v>73</v>
       </c>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="11"/>
-      <c r="AB77" s="21"/>
-      <c r="AC77" s="22" t="s">
+      <c r="Z77" s="14"/>
+      <c r="AA77" s="17"/>
+      <c r="AB77" s="11"/>
+      <c r="AC77" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AD77" s="21"/>
+      <c r="AD77" s="11"/>
       <c r="AK77" s="1"/>
       <c r="AL77" s="1" t="s">
         <v>125</v>
@@ -3735,13 +3735,13 @@
       <c r="D78" s="1">
         <v>74</v>
       </c>
-      <c r="Z78" s="10"/>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="21"/>
-      <c r="AC78" s="21" t="s">
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="17"/>
+      <c r="AB78" s="11"/>
+      <c r="AC78" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD78" s="21"/>
+      <c r="AD78" s="11"/>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1" t="s">
         <v>126</v>
@@ -3760,13 +3760,13 @@
       <c r="D79" s="1">
         <v>75</v>
       </c>
-      <c r="Z79" s="10"/>
-      <c r="AA79" s="11"/>
-      <c r="AB79" s="21"/>
-      <c r="AC79" s="21" t="s">
+      <c r="Z79" s="14"/>
+      <c r="AA79" s="17"/>
+      <c r="AB79" s="11"/>
+      <c r="AC79" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AD79" s="21"/>
+      <c r="AD79" s="11"/>
       <c r="AK79" s="1"/>
       <c r="AL79" s="1" t="s">
         <v>3</v>
@@ -3785,15 +3785,15 @@
       <c r="D80" s="1">
         <v>76</v>
       </c>
-      <c r="Z80" s="10" t="s">
+      <c r="Z80" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AA80" s="11"/>
-      <c r="AB80" s="21"/>
-      <c r="AC80" s="21" t="s">
+      <c r="AA80" s="17"/>
+      <c r="AB80" s="11"/>
+      <c r="AC80" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AD80" s="21"/>
+      <c r="AD80" s="11"/>
       <c r="AK80" s="1" t="s">
         <v>3</v>
       </c>
@@ -3814,23 +3814,20 @@
       <c r="D81" s="1">
         <v>77</v>
       </c>
-      <c r="Z81" s="10"/>
-      <c r="AA81" s="11" t="s">
+      <c r="Z81" s="14"/>
+      <c r="AA81" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="AB81" s="21"/>
-      <c r="AC81" s="21" t="s">
+      <c r="AB81" s="11"/>
+      <c r="AC81" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AD81" s="21"/>
+      <c r="AD81" s="11"/>
       <c r="AK81" s="1" t="s">
         <v>102</v>
       </c>
       <c r="AL81" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="AO81" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.45">
@@ -3846,17 +3843,20 @@
       <c r="D82" s="1">
         <v>78</v>
       </c>
-      <c r="Z82" s="10"/>
-      <c r="AA82" s="11"/>
-      <c r="AB82" s="21"/>
-      <c r="AC82" s="21" t="s">
+      <c r="Z82" s="14"/>
+      <c r="AA82" s="17"/>
+      <c r="AB82" s="11"/>
+      <c r="AC82" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AD82" s="21"/>
-      <c r="AK82" s="10" t="s">
+      <c r="AD82" s="11"/>
+      <c r="AK82" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AL82" s="10"/>
+      <c r="AL82" s="14"/>
+      <c r="AO82" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
@@ -3871,17 +3871,17 @@
       <c r="D83" s="1">
         <v>79</v>
       </c>
-      <c r="Z83" s="10"/>
-      <c r="AA83" s="11"/>
-      <c r="AB83" s="21"/>
-      <c r="AC83" s="21" t="s">
+      <c r="Z83" s="14"/>
+      <c r="AA83" s="17"/>
+      <c r="AB83" s="11"/>
+      <c r="AC83" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AD83" s="21"/>
-      <c r="AK83" s="10" t="s">
+      <c r="AD83" s="11"/>
+      <c r="AK83" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AL83" s="10"/>
+      <c r="AL83" s="14"/>
       <c r="AM83" s="1" t="s">
         <v>3</v>
       </c>
@@ -3899,18 +3899,18 @@
       <c r="D84" s="1">
         <v>80</v>
       </c>
-      <c r="Z84" s="10"/>
-      <c r="AA84" s="11"/>
-      <c r="AB84" s="21"/>
-      <c r="AC84" s="21" t="s">
+      <c r="Z84" s="14"/>
+      <c r="AA84" s="17"/>
+      <c r="AB84" s="11"/>
+      <c r="AC84" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AD84" s="21"/>
-      <c r="AK84" s="13" t="s">
+      <c r="AD84" s="11"/>
+      <c r="AK84" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="AL84" s="13"/>
-      <c r="AM84" s="13"/>
+      <c r="AL84" s="26"/>
+      <c r="AM84" s="26"/>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -3925,18 +3925,18 @@
       <c r="D85" s="1">
         <v>81</v>
       </c>
-      <c r="Z85" s="10"/>
-      <c r="AA85" s="11"/>
-      <c r="AB85" s="21"/>
-      <c r="AC85" s="21" t="s">
+      <c r="Z85" s="14"/>
+      <c r="AA85" s="17"/>
+      <c r="AB85" s="11"/>
+      <c r="AC85" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AD85" s="21"/>
-      <c r="AH85" s="21"/>
-      <c r="AI85" s="25" t="s">
+      <c r="AD85" s="11"/>
+      <c r="AH85" s="11"/>
+      <c r="AI85" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AJ85" s="21"/>
+      <c r="AJ85" s="11"/>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
@@ -3951,18 +3951,18 @@
       <c r="D86" s="1">
         <v>82</v>
       </c>
-      <c r="Z86" s="10"/>
-      <c r="AA86" s="11"/>
-      <c r="AB86" s="21"/>
-      <c r="AC86" s="21" t="s">
+      <c r="Z86" s="14"/>
+      <c r="AA86" s="17"/>
+      <c r="AB86" s="11"/>
+      <c r="AC86" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AD86" s="21"/>
-      <c r="AH86" s="21"/>
-      <c r="AI86" s="21" t="s">
+      <c r="AD86" s="11"/>
+      <c r="AH86" s="11"/>
+      <c r="AI86" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AJ86" s="21"/>
+      <c r="AJ86" s="11"/>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
@@ -3977,18 +3977,18 @@
       <c r="D87" s="1">
         <v>83</v>
       </c>
-      <c r="Z87" s="10"/>
-      <c r="AA87" s="11"/>
-      <c r="AB87" s="21"/>
-      <c r="AC87" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD87" s="21"/>
-      <c r="AH87" s="21"/>
-      <c r="AI87" s="21" t="s">
+      <c r="Z87" s="14"/>
+      <c r="AA87" s="17"/>
+      <c r="AB87" s="11"/>
+      <c r="AC87" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD87" s="11"/>
+      <c r="AH87" s="11"/>
+      <c r="AI87" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AJ87" s="21"/>
+      <c r="AJ87" s="11"/>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
@@ -4003,22 +4003,22 @@
       <c r="D88" s="1">
         <v>84</v>
       </c>
-      <c r="Z88" s="10" t="s">
+      <c r="Z88" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AA88" s="11"/>
-      <c r="AB88" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC88" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD88" s="21"/>
-      <c r="AH88" s="21"/>
-      <c r="AI88" s="21" t="s">
+      <c r="AA88" s="17"/>
+      <c r="AB88" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC88" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD88" s="11"/>
+      <c r="AH88" s="11"/>
+      <c r="AI88" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AJ88" s="21"/>
+      <c r="AJ88" s="11"/>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
@@ -4033,25 +4033,22 @@
       <c r="D89" s="1">
         <v>85</v>
       </c>
-      <c r="Z89" s="10"/>
-      <c r="AA89" s="11" t="s">
+      <c r="Z89" s="14"/>
+      <c r="AA89" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="AB89" s="21" t="s">
+      <c r="AB89" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AC89" s="21" t="s">
+      <c r="AC89" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AD89" s="21"/>
-      <c r="AH89" s="21"/>
-      <c r="AI89" s="21" t="s">
+      <c r="AD89" s="11"/>
+      <c r="AH89" s="11"/>
+      <c r="AI89" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AJ89" s="21"/>
-      <c r="AO89" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="AJ89" s="11"/>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
@@ -4066,18 +4063,21 @@
       <c r="D90" s="1">
         <v>86</v>
       </c>
-      <c r="Z90" s="10"/>
-      <c r="AA90" s="11"/>
-      <c r="AB90" s="23" t="s">
+      <c r="Z90" s="14"/>
+      <c r="AA90" s="17"/>
+      <c r="AB90" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AC90" s="23"/>
-      <c r="AD90" s="21"/>
-      <c r="AH90" s="21"/>
-      <c r="AI90" s="21" t="s">
+      <c r="AC90" s="24"/>
+      <c r="AD90" s="11"/>
+      <c r="AH90" s="11"/>
+      <c r="AI90" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AJ90" s="21"/>
+      <c r="AJ90" s="11"/>
+      <c r="AO90" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
@@ -4092,20 +4092,20 @@
       <c r="D91" s="1">
         <v>87</v>
       </c>
-      <c r="Z91" s="10"/>
-      <c r="AA91" s="11"/>
-      <c r="AB91" s="23" t="s">
+      <c r="Z91" s="14"/>
+      <c r="AA91" s="17"/>
+      <c r="AB91" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="AC91" s="23"/>
-      <c r="AD91" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH91" s="21"/>
-      <c r="AI91" s="21" t="s">
+      <c r="AC91" s="24"/>
+      <c r="AD91" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH91" s="11"/>
+      <c r="AI91" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AJ91" s="21"/>
+      <c r="AJ91" s="11"/>
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
@@ -4120,18 +4120,18 @@
       <c r="D92" s="1">
         <v>88</v>
       </c>
-      <c r="Z92" s="10"/>
-      <c r="AA92" s="11"/>
-      <c r="AB92" s="24" t="s">
+      <c r="Z92" s="14"/>
+      <c r="AA92" s="17"/>
+      <c r="AB92" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AC92" s="24"/>
-      <c r="AD92" s="24"/>
-      <c r="AH92" s="21"/>
-      <c r="AI92" s="21" t="s">
+      <c r="AC92" s="23"/>
+      <c r="AD92" s="23"/>
+      <c r="AH92" s="11"/>
+      <c r="AI92" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AJ92" s="21"/>
+      <c r="AJ92" s="11"/>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
@@ -4146,18 +4146,18 @@
       <c r="D93" s="1">
         <v>89</v>
       </c>
-      <c r="Z93" s="10"/>
-      <c r="AA93" s="11"/>
+      <c r="Z93" s="14"/>
+      <c r="AA93" s="17"/>
       <c r="AE93" s="7"/>
       <c r="AF93" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AG93" s="7"/>
-      <c r="AH93" s="21"/>
-      <c r="AI93" s="21" t="s">
+      <c r="AH93" s="11"/>
+      <c r="AI93" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AJ93" s="21"/>
+      <c r="AJ93" s="11"/>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
@@ -4172,18 +4172,18 @@
       <c r="D94" s="1">
         <v>90</v>
       </c>
-      <c r="Z94" s="10"/>
-      <c r="AA94" s="11"/>
+      <c r="Z94" s="14"/>
+      <c r="AA94" s="17"/>
       <c r="AE94" s="7"/>
       <c r="AF94" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AG94" s="7"/>
-      <c r="AH94" s="21"/>
-      <c r="AI94" s="21" t="s">
+      <c r="AH94" s="11"/>
+      <c r="AI94" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AJ94" s="21"/>
+      <c r="AJ94" s="11"/>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
@@ -4198,18 +4198,18 @@
       <c r="D95" s="1">
         <v>91</v>
       </c>
-      <c r="Z95" s="10"/>
-      <c r="AA95" s="11"/>
+      <c r="Z95" s="14"/>
+      <c r="AA95" s="17"/>
       <c r="AE95" s="7"/>
       <c r="AF95" s="7" t="s">
         <v>43</v>
       </c>
       <c r="AG95" s="7"/>
-      <c r="AH95" s="21"/>
-      <c r="AI95" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ95" s="21"/>
+      <c r="AH95" s="11"/>
+      <c r="AI95" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ95" s="11"/>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
@@ -4224,22 +4224,22 @@
       <c r="D96" s="1">
         <v>92</v>
       </c>
-      <c r="Z96" s="10" t="s">
+      <c r="Z96" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AA96" s="11"/>
+      <c r="AA96" s="17"/>
       <c r="AE96" s="7"/>
       <c r="AF96" s="7" t="s">
         <v>44</v>
       </c>
       <c r="AG96" s="7"/>
-      <c r="AH96" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI96" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ96" s="21"/>
+      <c r="AH96" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI96" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ96" s="11"/>
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
@@ -4254,8 +4254,8 @@
       <c r="D97" s="1">
         <v>93</v>
       </c>
-      <c r="Z97" s="10"/>
-      <c r="AA97" s="11" t="s">
+      <c r="Z97" s="14"/>
+      <c r="AA97" s="17" t="s">
         <v>105</v>
       </c>
       <c r="AE97" s="7"/>
@@ -4263,16 +4263,13 @@
         <v>90</v>
       </c>
       <c r="AG97" s="7"/>
-      <c r="AH97" s="21" t="s">
+      <c r="AH97" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AI97" s="21" t="s">
+      <c r="AI97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AJ97" s="21"/>
-      <c r="AO97" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="AJ97" s="11"/>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
@@ -4287,18 +4284,21 @@
       <c r="D98" s="1">
         <v>94</v>
       </c>
-      <c r="Z98" s="10"/>
-      <c r="AA98" s="11"/>
+      <c r="Z98" s="14"/>
+      <c r="AA98" s="17"/>
       <c r="AE98" s="7"/>
       <c r="AF98" s="7" t="s">
         <v>91</v>
       </c>
       <c r="AG98" s="7"/>
-      <c r="AH98" s="23" t="s">
+      <c r="AH98" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AI98" s="23"/>
-      <c r="AJ98" s="21"/>
+      <c r="AI98" s="24"/>
+      <c r="AJ98" s="11"/>
+      <c r="AO98" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
@@ -4313,18 +4313,18 @@
       <c r="D99" s="1">
         <v>95</v>
       </c>
-      <c r="Z99" s="10"/>
-      <c r="AA99" s="11"/>
+      <c r="Z99" s="14"/>
+      <c r="AA99" s="17"/>
       <c r="AE99" s="7"/>
       <c r="AF99" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AG99" s="7"/>
-      <c r="AH99" s="23" t="s">
+      <c r="AH99" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="AI99" s="23"/>
-      <c r="AJ99" s="21" t="s">
+      <c r="AI99" s="24"/>
+      <c r="AJ99" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4341,18 +4341,18 @@
       <c r="D100" s="1">
         <v>96</v>
       </c>
-      <c r="Z100" s="10"/>
-      <c r="AA100" s="11"/>
+      <c r="Z100" s="14"/>
+      <c r="AA100" s="17"/>
       <c r="AE100" s="7"/>
       <c r="AF100" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AG100" s="7"/>
-      <c r="AH100" s="26" t="s">
+      <c r="AH100" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="AI100" s="26"/>
-      <c r="AJ100" s="26"/>
+      <c r="AI100" s="25"/>
+      <c r="AJ100" s="25"/>
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
@@ -4367,8 +4367,8 @@
       <c r="D101" s="1">
         <v>97</v>
       </c>
-      <c r="Z101" s="10"/>
-      <c r="AA101" s="11"/>
+      <c r="Z101" s="14"/>
+      <c r="AA101" s="17"/>
       <c r="AE101" s="7"/>
       <c r="AF101" s="7" t="s">
         <v>99</v>
@@ -4393,8 +4393,8 @@
       <c r="D102" s="1">
         <v>98</v>
       </c>
-      <c r="Z102" s="10"/>
-      <c r="AA102" s="11"/>
+      <c r="Z102" s="14"/>
+      <c r="AA102" s="17"/>
       <c r="AE102" s="7"/>
       <c r="AF102" s="7" t="s">
         <v>100</v>
@@ -4419,8 +4419,8 @@
       <c r="D103" s="1">
         <v>99</v>
       </c>
-      <c r="Z103" s="10"/>
-      <c r="AA103" s="11"/>
+      <c r="Z103" s="14"/>
+      <c r="AA103" s="17"/>
       <c r="AE103" s="7"/>
       <c r="AF103" s="7" t="s">
         <v>3</v>
@@ -4445,10 +4445,10 @@
       <c r="D104" s="1">
         <v>100</v>
       </c>
-      <c r="Z104" s="10" t="s">
+      <c r="Z104" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AA104" s="11"/>
+      <c r="AA104" s="17"/>
       <c r="AE104" s="7" t="s">
         <v>3</v>
       </c>
@@ -4475,8 +4475,8 @@
       <c r="D105" s="1">
         <v>101</v>
       </c>
-      <c r="Z105" s="10"/>
-      <c r="AA105" s="11" t="s">
+      <c r="Z105" s="14"/>
+      <c r="AA105" s="17" t="s">
         <v>106</v>
       </c>
       <c r="AE105" s="7" t="s">
@@ -4505,12 +4505,12 @@
       <c r="D106" s="1">
         <v>102</v>
       </c>
-      <c r="Z106" s="10"/>
-      <c r="AA106" s="11"/>
-      <c r="AE106" s="12" t="s">
+      <c r="Z106" s="14"/>
+      <c r="AA106" s="17"/>
+      <c r="AE106" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="AF106" s="12"/>
+      <c r="AF106" s="22"/>
       <c r="AG106" s="7"/>
       <c r="AK106" s="7"/>
       <c r="AL106" s="7" t="s">
@@ -4519,12 +4519,12 @@
       <c r="AM106" s="7"/>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="Z107" s="10"/>
-      <c r="AA107" s="11"/>
-      <c r="AE107" s="12" t="s">
+      <c r="Z107" s="14"/>
+      <c r="AA107" s="17"/>
+      <c r="AE107" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="AF107" s="12"/>
+      <c r="AF107" s="22"/>
       <c r="AG107" s="7" t="s">
         <v>3</v>
       </c>
@@ -4535,13 +4535,13 @@
       <c r="AM107" s="7"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="Z108" s="10"/>
-      <c r="AA108" s="11"/>
-      <c r="AE108" s="12" t="s">
+      <c r="Z108" s="14"/>
+      <c r="AA108" s="17"/>
+      <c r="AE108" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AF108" s="12"/>
-      <c r="AG108" s="12"/>
+      <c r="AF108" s="22"/>
+      <c r="AG108" s="22"/>
       <c r="AK108" s="7"/>
       <c r="AL108" s="7" t="s">
         <v>98</v>
@@ -4549,8 +4549,8 @@
       <c r="AM108" s="7"/>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="Z109" s="10"/>
-      <c r="AA109" s="11"/>
+      <c r="Z109" s="14"/>
+      <c r="AA109" s="17"/>
       <c r="AK109" s="7"/>
       <c r="AL109" s="7" t="s">
         <v>99</v>
@@ -4558,8 +4558,8 @@
       <c r="AM109" s="7"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="Z110" s="10"/>
-      <c r="AA110" s="11"/>
+      <c r="Z110" s="14"/>
+      <c r="AA110" s="17"/>
       <c r="AK110" s="7"/>
       <c r="AL110" s="7" t="s">
         <v>100</v>
@@ -4567,8 +4567,8 @@
       <c r="AM110" s="7"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="Z111" s="10"/>
-      <c r="AA111" s="11"/>
+      <c r="Z111" s="14"/>
+      <c r="AA111" s="17"/>
       <c r="AK111" s="7"/>
       <c r="AL111" s="7" t="s">
         <v>3</v>
@@ -4576,10 +4576,10 @@
       <c r="AM111" s="7"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="Z112" s="10" t="s">
+      <c r="Z112" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AA112" s="11"/>
+      <c r="AA112" s="17"/>
       <c r="AK112" s="7" t="s">
         <v>3</v>
       </c>
@@ -4589,8 +4589,8 @@
       <c r="AM112" s="7"/>
     </row>
     <row r="113" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z113" s="10"/>
-      <c r="AA113" s="11" t="s">
+      <c r="Z113" s="14"/>
+      <c r="AA113" s="17" t="s">
         <v>107</v>
       </c>
       <c r="AK113" s="7" t="s">
@@ -4602,66 +4602,141 @@
       <c r="AM113" s="7"/>
     </row>
     <row r="114" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z114" s="10"/>
-      <c r="AA114" s="11"/>
-      <c r="AK114" s="12" t="s">
+      <c r="Z114" s="14"/>
+      <c r="AA114" s="17"/>
+      <c r="AK114" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="AL114" s="12"/>
+      <c r="AL114" s="22"/>
       <c r="AM114" s="7"/>
     </row>
     <row r="115" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z115" s="10"/>
-      <c r="AA115" s="11"/>
-      <c r="AK115" s="12" t="s">
+      <c r="Z115" s="14"/>
+      <c r="AA115" s="17"/>
+      <c r="AK115" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="AL115" s="12"/>
+      <c r="AL115" s="22"/>
       <c r="AM115" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z116" s="10"/>
-      <c r="AA116" s="11"/>
-      <c r="AK116" s="12" t="s">
+      <c r="Z116" s="14"/>
+      <c r="AA116" s="17"/>
+      <c r="AK116" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AL116" s="12"/>
-      <c r="AM116" s="12"/>
+      <c r="AL116" s="22"/>
+      <c r="AM116" s="22"/>
     </row>
     <row r="117" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z117" s="10"/>
-      <c r="AA117" s="11"/>
+      <c r="Z117" s="14"/>
+      <c r="AA117" s="17"/>
     </row>
     <row r="118" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z118" s="10"/>
-      <c r="AA118" s="11"/>
+      <c r="Z118" s="14"/>
+      <c r="AA118" s="17"/>
     </row>
     <row r="119" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="Z119" s="10"/>
-      <c r="AA119" s="11"/>
+      <c r="Z119" s="14"/>
+      <c r="AA119" s="17"/>
     </row>
     <row r="120" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="AA120" s="11"/>
+      <c r="AA120" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="Z1:AM1"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="Z96:Z103"/>
+    <mergeCell ref="Z104:Z111"/>
+    <mergeCell ref="Z112:Z119"/>
+    <mergeCell ref="AA89:AA96"/>
+    <mergeCell ref="AA97:AA104"/>
+    <mergeCell ref="AA105:AA112"/>
+    <mergeCell ref="AA113:AA120"/>
+    <mergeCell ref="AE107:AF107"/>
+    <mergeCell ref="AE108:AG108"/>
+    <mergeCell ref="AK114:AL114"/>
+    <mergeCell ref="AK115:AL115"/>
+    <mergeCell ref="AK116:AM116"/>
+    <mergeCell ref="AB92:AD92"/>
+    <mergeCell ref="AH98:AI98"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="AH100:AJ100"/>
+    <mergeCell ref="AE106:AF106"/>
+    <mergeCell ref="AK82:AL82"/>
+    <mergeCell ref="AK83:AL83"/>
+    <mergeCell ref="AK84:AM84"/>
+    <mergeCell ref="AB90:AC90"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="AE75:AF75"/>
+    <mergeCell ref="AE76:AG76"/>
+    <mergeCell ref="AH66:AI66"/>
+    <mergeCell ref="AH67:AI67"/>
+    <mergeCell ref="AH68:AJ68"/>
+    <mergeCell ref="AE74:AF74"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="O15:V15"/>
+    <mergeCell ref="Z64:Z71"/>
+    <mergeCell ref="Z72:Z79"/>
+    <mergeCell ref="O47:X47"/>
+    <mergeCell ref="O36:V36"/>
+    <mergeCell ref="O37:V37"/>
+    <mergeCell ref="O38:V38"/>
+    <mergeCell ref="O39:V39"/>
+    <mergeCell ref="O40:V40"/>
+    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="O43:V43"/>
+    <mergeCell ref="O44:V44"/>
+    <mergeCell ref="Z80:Z87"/>
+    <mergeCell ref="AA65:AA72"/>
+    <mergeCell ref="AA73:AA80"/>
+    <mergeCell ref="AA81:AA88"/>
+    <mergeCell ref="AB59:AC59"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="Z88:Z95"/>
+    <mergeCell ref="Z24:Z31"/>
+    <mergeCell ref="Z32:Z39"/>
+    <mergeCell ref="Z40:Z47"/>
+    <mergeCell ref="Z48:Z55"/>
+    <mergeCell ref="Z56:Z63"/>
+    <mergeCell ref="AA25:AA32"/>
+    <mergeCell ref="AA33:AA40"/>
+    <mergeCell ref="AA41:AA48"/>
+    <mergeCell ref="AA49:AA56"/>
+    <mergeCell ref="AA57:AA64"/>
+    <mergeCell ref="O41:V41"/>
+    <mergeCell ref="O42:V42"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="O27:V27"/>
+    <mergeCell ref="O28:V28"/>
+    <mergeCell ref="O29:V29"/>
+    <mergeCell ref="O30:V30"/>
+    <mergeCell ref="O31:V31"/>
+    <mergeCell ref="O32:V32"/>
+    <mergeCell ref="O33:V33"/>
+    <mergeCell ref="O34:V34"/>
+    <mergeCell ref="O35:V35"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="O21:V21"/>
+    <mergeCell ref="O22:V22"/>
+    <mergeCell ref="O23:V23"/>
+    <mergeCell ref="O24:V24"/>
+    <mergeCell ref="O25:V25"/>
+    <mergeCell ref="O16:V16"/>
+    <mergeCell ref="O17:V17"/>
+    <mergeCell ref="O18:V18"/>
+    <mergeCell ref="O19:V19"/>
+    <mergeCell ref="O20:V20"/>
     <mergeCell ref="F40:M40"/>
     <mergeCell ref="F41:M41"/>
     <mergeCell ref="F42:M42"/>
@@ -4686,96 +4761,21 @@
     <mergeCell ref="F25:M25"/>
     <mergeCell ref="F35:M35"/>
     <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="O21:V21"/>
-    <mergeCell ref="O22:V22"/>
-    <mergeCell ref="O23:V23"/>
-    <mergeCell ref="O24:V24"/>
-    <mergeCell ref="O25:V25"/>
-    <mergeCell ref="O16:V16"/>
-    <mergeCell ref="O17:V17"/>
-    <mergeCell ref="O18:V18"/>
-    <mergeCell ref="O19:V19"/>
-    <mergeCell ref="O20:V20"/>
-    <mergeCell ref="O41:V41"/>
-    <mergeCell ref="O42:V42"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="O27:V27"/>
-    <mergeCell ref="O28:V28"/>
-    <mergeCell ref="O29:V29"/>
-    <mergeCell ref="O30:V30"/>
-    <mergeCell ref="O31:V31"/>
-    <mergeCell ref="O32:V32"/>
-    <mergeCell ref="O33:V33"/>
-    <mergeCell ref="O34:V34"/>
-    <mergeCell ref="O35:V35"/>
-    <mergeCell ref="Z80:Z87"/>
-    <mergeCell ref="AA65:AA72"/>
-    <mergeCell ref="AA73:AA80"/>
-    <mergeCell ref="AA81:AA88"/>
-    <mergeCell ref="AB59:AC59"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="Z88:Z95"/>
-    <mergeCell ref="Z24:Z31"/>
-    <mergeCell ref="Z32:Z39"/>
-    <mergeCell ref="Z40:Z47"/>
-    <mergeCell ref="Z48:Z55"/>
-    <mergeCell ref="Z56:Z63"/>
-    <mergeCell ref="AA25:AA32"/>
-    <mergeCell ref="AA33:AA40"/>
-    <mergeCell ref="AA41:AA48"/>
-    <mergeCell ref="AA49:AA56"/>
-    <mergeCell ref="AA57:AA64"/>
-    <mergeCell ref="AE75:AF75"/>
-    <mergeCell ref="AE76:AG76"/>
-    <mergeCell ref="AH66:AI66"/>
-    <mergeCell ref="AH67:AI67"/>
-    <mergeCell ref="AH68:AJ68"/>
-    <mergeCell ref="AE74:AF74"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="O15:V15"/>
-    <mergeCell ref="Z64:Z71"/>
-    <mergeCell ref="Z72:Z79"/>
-    <mergeCell ref="O47:X47"/>
-    <mergeCell ref="O36:V36"/>
-    <mergeCell ref="O37:V37"/>
-    <mergeCell ref="O38:V38"/>
-    <mergeCell ref="O39:V39"/>
-    <mergeCell ref="O40:V40"/>
-    <mergeCell ref="O46:X46"/>
-    <mergeCell ref="O43:V43"/>
-    <mergeCell ref="O44:V44"/>
-    <mergeCell ref="AK114:AL114"/>
-    <mergeCell ref="AK115:AL115"/>
-    <mergeCell ref="AK116:AM116"/>
-    <mergeCell ref="AB92:AD92"/>
-    <mergeCell ref="AH98:AI98"/>
-    <mergeCell ref="AH99:AI99"/>
-    <mergeCell ref="AH100:AJ100"/>
-    <mergeCell ref="AE106:AF106"/>
-    <mergeCell ref="AK82:AL82"/>
-    <mergeCell ref="AK83:AL83"/>
-    <mergeCell ref="AK84:AM84"/>
-    <mergeCell ref="AB90:AC90"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="Z96:Z103"/>
-    <mergeCell ref="Z104:Z111"/>
-    <mergeCell ref="Z112:Z119"/>
-    <mergeCell ref="AA89:AA96"/>
-    <mergeCell ref="AA97:AA104"/>
-    <mergeCell ref="AA105:AA112"/>
-    <mergeCell ref="AA113:AA120"/>
-    <mergeCell ref="AE107:AF107"/>
-    <mergeCell ref="AE108:AG108"/>
+    <mergeCell ref="Z1:AM1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="O14:T14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/YM2151_pipeline.xlsx
+++ b/resources/YM2151_pipeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiki1\Documents\GitHub\IKA2151\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08820559-CFB8-4FBE-8ED0-3FD46417DAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7AE817-E3B7-4A38-B7BC-A20F48F7C4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21FA489F-99A7-4423-AACC-AAA6225B3652}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="142">
   <si>
     <t>cycles</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,6 +573,18 @@
   </si>
   <si>
     <t>delay cyc40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add ch8 car2 output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add ch1 mod 1 output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay (send data to ACC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,26 +758,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,6 +774,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26F0356-A14C-4D6F-8D86-37D3D942B4BC}">
   <dimension ref="A1:AO120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X45" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR72" sqref="AR72"/>
+    <sheetView tabSelected="1" topLeftCell="L28" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1536,13 +1548,13 @@
       <c r="D13" s="1">
         <v>9</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1552,14 +1564,14 @@
       <c r="M13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
       <c r="U13" s="3" t="s">
         <v>138</v>
       </c>
@@ -1580,28 +1592,28 @@
       <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1622,30 +1634,30 @@
       <c r="D15" s="1">
         <v>11</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -1660,28 +1672,28 @@
       <c r="D16" s="1">
         <v>12</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
@@ -1696,28 +1708,28 @@
       <c r="D17" s="1">
         <v>13</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
+      <c r="O17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
@@ -1732,28 +1744,28 @@
       <c r="D18" s="1">
         <v>14</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
+      <c r="O18" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
@@ -1768,28 +1780,28 @@
       <c r="D19" s="1">
         <v>15</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O19" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
+      <c r="O19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
@@ -1804,28 +1816,28 @@
       <c r="D20" s="1">
         <v>16</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
+      <c r="O20" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -1840,26 +1852,26 @@
       <c r="D21" s="1">
         <v>17</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="O21" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="O21" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -1874,26 +1886,26 @@
       <c r="D22" s="1">
         <v>18</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="O22" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="O22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
@@ -1908,26 +1920,26 @@
       <c r="D23" s="1">
         <v>19</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="O23" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
+      <c r="F23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="O23" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -1942,26 +1954,26 @@
       <c r="D24" s="1">
         <v>20</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="O24" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
+      <c r="F24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="O24" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
       <c r="Z24" s="14" t="s">
         <v>93</v>
       </c>
@@ -1983,28 +1995,28 @@
       <c r="D25" s="1">
         <v>21</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="O25" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
+      <c r="F25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="O25" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
       <c r="Z25" s="14"/>
-      <c r="AA25" s="17" t="s">
+      <c r="AA25" s="15" t="s">
         <v>104</v>
       </c>
       <c r="AB25" s="1"/>
@@ -2025,28 +2037,28 @@
       <c r="D26" s="1">
         <v>22</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="O26" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
+      <c r="F26" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="O26" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
       <c r="Z26" s="14"/>
-      <c r="AA26" s="17"/>
+      <c r="AA26" s="15"/>
       <c r="AB26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AH26" s="1"/>
@@ -2065,28 +2077,28 @@
       <c r="D27" s="1">
         <v>23</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="O27" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
+      <c r="F27" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="O27" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
       <c r="Z27" s="14"/>
-      <c r="AA27" s="17"/>
+      <c r="AA27" s="15"/>
       <c r="AB27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AH27" s="1"/>
@@ -2105,28 +2117,28 @@
       <c r="D28" s="1">
         <v>24</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="O28" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
+      <c r="F28" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="O28" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
       <c r="Z28" s="14"/>
-      <c r="AA28" s="17"/>
+      <c r="AA28" s="15"/>
       <c r="AB28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AH28" s="1"/>
@@ -2145,28 +2157,28 @@
       <c r="D29" s="1">
         <v>25</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="O29" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
+      <c r="F29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="O29" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
       <c r="Z29" s="14"/>
-      <c r="AA29" s="17"/>
+      <c r="AA29" s="15"/>
       <c r="AB29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AH29" s="1"/>
@@ -2185,28 +2197,28 @@
       <c r="D30" s="1">
         <v>26</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="O30" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
+      <c r="F30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="O30" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
       <c r="Z30" s="14"/>
-      <c r="AA30" s="17"/>
+      <c r="AA30" s="15"/>
       <c r="AB30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AH30" s="1"/>
@@ -2225,28 +2237,28 @@
       <c r="D31" s="1">
         <v>27</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="O31" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
+      <c r="F31" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="O31" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
       <c r="Z31" s="14"/>
-      <c r="AA31" s="17"/>
+      <c r="AA31" s="15"/>
       <c r="AB31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AH31" s="1"/>
@@ -2265,30 +2277,30 @@
       <c r="D32" s="1">
         <v>28</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="O32" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
+      <c r="F32" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="O32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
       <c r="Z32" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AA32" s="17"/>
+      <c r="AA32" s="15"/>
       <c r="AB32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AH32" s="1"/>
@@ -2307,28 +2319,28 @@
       <c r="D33" s="1">
         <v>29</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="O33" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
+      <c r="F33" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="O33" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
       <c r="Z33" s="14"/>
-      <c r="AA33" s="17" t="s">
+      <c r="AA33" s="15" t="s">
         <v>105</v>
       </c>
       <c r="AB33" s="1"/>
@@ -2349,28 +2361,28 @@
       <c r="D34" s="1">
         <v>30</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="O34" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
+      <c r="F34" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="O34" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
       <c r="Z34" s="14"/>
-      <c r="AA34" s="17"/>
+      <c r="AA34" s="15"/>
       <c r="AB34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AH34" s="1"/>
@@ -2389,28 +2401,28 @@
       <c r="D35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="O35" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
+      <c r="F35" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="O35" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
       <c r="Z35" s="14"/>
-      <c r="AA35" s="17"/>
+      <c r="AA35" s="15"/>
       <c r="AB35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AH35" s="1"/>
@@ -2429,28 +2441,28 @@
       <c r="D36" s="1">
         <v>32</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="O36" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
+      <c r="F36" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="O36" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
       <c r="Z36" s="14"/>
-      <c r="AA36" s="17"/>
+      <c r="AA36" s="15"/>
       <c r="AB36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AH36" s="1"/>
@@ -2469,28 +2481,28 @@
       <c r="D37" s="1">
         <v>33</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="O37" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
+      <c r="F37" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="O37" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
       <c r="Z37" s="14"/>
-      <c r="AA37" s="17"/>
+      <c r="AA37" s="15"/>
       <c r="AB37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AH37" s="1"/>
@@ -2509,28 +2521,28 @@
       <c r="D38" s="1">
         <v>34</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="O38" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
+      <c r="F38" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="O38" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
       <c r="Z38" s="14"/>
-      <c r="AA38" s="17"/>
+      <c r="AA38" s="15"/>
       <c r="AB38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AH38" s="1"/>
@@ -2549,28 +2561,28 @@
       <c r="D39" s="1">
         <v>35</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="O39" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
+      <c r="F39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="O39" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
       <c r="Z39" s="14"/>
-      <c r="AA39" s="17"/>
+      <c r="AA39" s="15"/>
       <c r="AB39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AH39" s="1"/>
@@ -2589,30 +2601,30 @@
       <c r="D40" s="1">
         <v>36</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="O40" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
+      <c r="F40" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="O40" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
       <c r="Z40" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AA40" s="17"/>
+      <c r="AA40" s="15"/>
       <c r="AB40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AH40" s="1"/>
@@ -2631,28 +2643,28 @@
       <c r="D41" s="1">
         <v>37</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="O41" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
+      <c r="F41" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="O41" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
       <c r="Z41" s="14"/>
-      <c r="AA41" s="17" t="s">
+      <c r="AA41" s="15" t="s">
         <v>106</v>
       </c>
       <c r="AB41" s="1"/>
@@ -2673,28 +2685,28 @@
       <c r="D42" s="1">
         <v>38</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="O42" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
+      <c r="F42" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="O42" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
       <c r="Z42" s="14"/>
-      <c r="AA42" s="17"/>
+      <c r="AA42" s="15"/>
       <c r="AB42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AH42" s="1"/>
@@ -2713,28 +2725,28 @@
       <c r="D43" s="1">
         <v>39</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="O43" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
+      <c r="F43" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="O43" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
       <c r="Z43" s="14"/>
-      <c r="AA43" s="17"/>
+      <c r="AA43" s="15"/>
       <c r="AB43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AH43" s="1"/>
@@ -2753,32 +2765,32 @@
       <c r="D44" s="1">
         <v>40</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="O44" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
+      <c r="F44" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="O44" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
       <c r="W44" s="14" t="s">
         <v>37</v>
       </c>
       <c r="X44" s="14"/>
       <c r="Z44" s="14"/>
-      <c r="AA44" s="17"/>
+      <c r="AA44" s="15"/>
       <c r="AB44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AH44" s="1"/>
@@ -2818,7 +2830,7 @@
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
       <c r="Z45" s="14"/>
-      <c r="AA45" s="17"/>
+      <c r="AA45" s="15"/>
       <c r="AB45" s="10"/>
       <c r="AC45" s="10" t="s">
         <v>41</v>
@@ -2859,7 +2871,7 @@
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
       <c r="Z46" s="14"/>
-      <c r="AA46" s="17"/>
+      <c r="AA46" s="15"/>
       <c r="AB46" s="10"/>
       <c r="AC46" s="10" t="s">
         <v>42</v>
@@ -2900,7 +2912,7 @@
       <c r="W47" s="14"/>
       <c r="X47" s="14"/>
       <c r="Z47" s="14"/>
-      <c r="AA47" s="17"/>
+      <c r="AA47" s="15"/>
       <c r="AB47" s="10"/>
       <c r="AC47" s="10" t="s">
         <v>43</v>
@@ -2931,7 +2943,7 @@
       <c r="Z48" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AA48" s="17"/>
+      <c r="AA48" s="15"/>
       <c r="AB48" s="10"/>
       <c r="AC48" s="10" t="s">
         <v>44</v>
@@ -2960,7 +2972,7 @@
       <c r="L49"/>
       <c r="M49"/>
       <c r="Z49" s="14"/>
-      <c r="AA49" s="17" t="s">
+      <c r="AA49" s="15" t="s">
         <v>107</v>
       </c>
       <c r="AB49" s="10"/>
@@ -2991,7 +3003,7 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="Z50" s="14"/>
-      <c r="AA50" s="17"/>
+      <c r="AA50" s="15"/>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10" t="s">
         <v>91</v>
@@ -3020,7 +3032,7 @@
       <c r="L51"/>
       <c r="M51"/>
       <c r="Z51" s="14"/>
-      <c r="AA51" s="17"/>
+      <c r="AA51" s="15"/>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10" t="s">
         <v>92</v>
@@ -3041,7 +3053,7 @@
         <v>48</v>
       </c>
       <c r="Z52" s="14"/>
-      <c r="AA52" s="17"/>
+      <c r="AA52" s="15"/>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10" t="s">
         <v>98</v>
@@ -3062,7 +3074,7 @@
         <v>49</v>
       </c>
       <c r="Z53" s="14"/>
-      <c r="AA53" s="17"/>
+      <c r="AA53" s="15"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10" t="s">
         <v>99</v>
@@ -3088,7 +3100,7 @@
         <v>50</v>
       </c>
       <c r="Z54" s="14"/>
-      <c r="AA54" s="17"/>
+      <c r="AA54" s="15"/>
       <c r="AB54" s="10"/>
       <c r="AC54" s="10" t="s">
         <v>100</v>
@@ -3114,7 +3126,7 @@
         <v>51</v>
       </c>
       <c r="Z55" s="14"/>
-      <c r="AA55" s="17"/>
+      <c r="AA55" s="15"/>
       <c r="AB55" s="10"/>
       <c r="AC55" s="10" t="s">
         <v>3</v>
@@ -3142,12 +3154,12 @@
       <c r="Z56" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AA56" s="17"/>
+      <c r="AA56" s="15"/>
       <c r="AB56" s="10" t="s">
         <v>3</v>
       </c>
       <c r="AC56" s="10" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="AD56" s="10"/>
       <c r="AH56" s="10"/>
@@ -3155,6 +3167,9 @@
         <v>44</v>
       </c>
       <c r="AJ56" s="10"/>
+      <c r="AO56" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="57" spans="1:41" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -3170,7 +3185,7 @@
         <v>53</v>
       </c>
       <c r="Z57" s="14"/>
-      <c r="AA57" s="17" t="s">
+      <c r="AA57" s="15" t="s">
         <v>104</v>
       </c>
       <c r="AB57" s="10" t="s">
@@ -3185,6 +3200,9 @@
         <v>90</v>
       </c>
       <c r="AJ57" s="10"/>
+      <c r="AO57" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
@@ -3200,20 +3218,17 @@
         <v>54</v>
       </c>
       <c r="Z58" s="14"/>
-      <c r="AA58" s="17"/>
-      <c r="AB58" s="18" t="s">
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="AC58" s="18"/>
+      <c r="AC58" s="22"/>
       <c r="AD58" s="10"/>
       <c r="AH58" s="10"/>
       <c r="AI58" s="10" t="s">
         <v>91</v>
       </c>
       <c r="AJ58" s="10"/>
-      <c r="AO58" s="1" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
@@ -3229,11 +3244,11 @@
         <v>55</v>
       </c>
       <c r="Z59" s="14"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="18" t="s">
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="AC59" s="18"/>
+      <c r="AC59" s="22"/>
       <c r="AD59" s="10" t="s">
         <v>3</v>
       </c>
@@ -3257,12 +3272,12 @@
         <v>56</v>
       </c>
       <c r="Z60" s="14"/>
-      <c r="AA60" s="17"/>
-      <c r="AB60" s="19" t="s">
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
+      <c r="AC60" s="26"/>
+      <c r="AD60" s="26"/>
       <c r="AH60" s="10"/>
       <c r="AI60" s="10" t="s">
         <v>98</v>
@@ -3283,7 +3298,7 @@
         <v>57</v>
       </c>
       <c r="Z61" s="14"/>
-      <c r="AA61" s="17"/>
+      <c r="AA61" s="15"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="5" t="s">
         <v>41</v>
@@ -3309,7 +3324,7 @@
         <v>58</v>
       </c>
       <c r="Z62" s="14"/>
-      <c r="AA62" s="17"/>
+      <c r="AA62" s="15"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1" t="s">
         <v>42</v>
@@ -3335,7 +3350,7 @@
         <v>59</v>
       </c>
       <c r="Z63" s="14"/>
-      <c r="AA63" s="17"/>
+      <c r="AA63" s="15"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1" t="s">
         <v>43</v>
@@ -3363,7 +3378,7 @@
       <c r="Z64" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AA64" s="17"/>
+      <c r="AA64" s="15"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1" t="s">
         <v>44</v>
@@ -3391,7 +3406,7 @@
         <v>61</v>
       </c>
       <c r="Z65" s="14"/>
-      <c r="AA65" s="17" t="s">
+      <c r="AA65" s="15" t="s">
         <v>105</v>
       </c>
       <c r="AE65" s="1"/>
@@ -3406,6 +3421,9 @@
       </c>
       <c r="AJ65" s="10"/>
       <c r="AK65" s="1"/>
+      <c r="AO65" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -3421,20 +3439,17 @@
         <v>62</v>
       </c>
       <c r="Z66" s="14"/>
-      <c r="AA66" s="17"/>
+      <c r="AA66" s="15"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH66" s="18" t="s">
+      <c r="AH66" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="AI66" s="18"/>
+      <c r="AI66" s="22"/>
       <c r="AJ66" s="10"/>
       <c r="AK66" s="1"/>
-      <c r="AO66" s="1" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
@@ -3450,15 +3465,15 @@
         <v>63</v>
       </c>
       <c r="Z67" s="14"/>
-      <c r="AA67" s="17"/>
+      <c r="AA67" s="15"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH67" s="18" t="s">
+      <c r="AH67" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="AI67" s="18"/>
+      <c r="AI67" s="22"/>
       <c r="AJ67" s="10" t="s">
         <v>3</v>
       </c>
@@ -3478,16 +3493,16 @@
         <v>64</v>
       </c>
       <c r="Z68" s="14"/>
-      <c r="AA68" s="17"/>
+      <c r="AA68" s="15"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AH68" s="21" t="s">
+      <c r="AH68" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AI68" s="21"/>
-      <c r="AJ68" s="21"/>
+      <c r="AI68" s="23"/>
+      <c r="AJ68" s="23"/>
       <c r="AK68" s="1"/>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.45">
@@ -3504,7 +3519,7 @@
         <v>65</v>
       </c>
       <c r="Z69" s="14"/>
-      <c r="AA69" s="17"/>
+      <c r="AA69" s="15"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1" t="s">
         <v>99</v>
@@ -3528,7 +3543,7 @@
         <v>66</v>
       </c>
       <c r="Z70" s="14"/>
-      <c r="AA70" s="17"/>
+      <c r="AA70" s="15"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1" t="s">
         <v>100</v>
@@ -3552,7 +3567,7 @@
         <v>67</v>
       </c>
       <c r="Z71" s="14"/>
-      <c r="AA71" s="17"/>
+      <c r="AA71" s="15"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1" t="s">
         <v>3</v>
@@ -3578,7 +3593,7 @@
       <c r="Z72" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AA72" s="17"/>
+      <c r="AA72" s="15"/>
       <c r="AE72" s="1" t="s">
         <v>3</v>
       </c>
@@ -3604,7 +3619,7 @@
         <v>69</v>
       </c>
       <c r="Z73" s="14"/>
-      <c r="AA73" s="17" t="s">
+      <c r="AA73" s="15" t="s">
         <v>106</v>
       </c>
       <c r="AE73" s="1" t="s">
@@ -3617,6 +3632,9 @@
       <c r="AL73" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="AO73" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
@@ -3632,7 +3650,7 @@
         <v>70</v>
       </c>
       <c r="Z74" s="14"/>
-      <c r="AA74" s="17"/>
+      <c r="AA74" s="15"/>
       <c r="AE74" s="14" t="s">
         <v>127</v>
       </c>
@@ -3641,9 +3659,6 @@
       <c r="AL74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AO74" s="1" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -3659,7 +3674,7 @@
         <v>71</v>
       </c>
       <c r="Z75" s="14"/>
-      <c r="AA75" s="17"/>
+      <c r="AA75" s="15"/>
       <c r="AE75" s="14" t="s">
         <v>128</v>
       </c>
@@ -3686,12 +3701,12 @@
         <v>72</v>
       </c>
       <c r="Z76" s="14"/>
-      <c r="AA76" s="17"/>
-      <c r="AE76" s="20" t="s">
+      <c r="AA76" s="15"/>
+      <c r="AE76" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="AF76" s="20"/>
-      <c r="AG76" s="20"/>
+      <c r="AF76" s="21"/>
+      <c r="AG76" s="21"/>
       <c r="AK76" s="1"/>
       <c r="AL76" s="1" t="s">
         <v>98</v>
@@ -3711,7 +3726,7 @@
         <v>73</v>
       </c>
       <c r="Z77" s="14"/>
-      <c r="AA77" s="17"/>
+      <c r="AA77" s="15"/>
       <c r="AB77" s="11"/>
       <c r="AC77" s="12" t="s">
         <v>41</v>
@@ -3736,7 +3751,7 @@
         <v>74</v>
       </c>
       <c r="Z78" s="14"/>
-      <c r="AA78" s="17"/>
+      <c r="AA78" s="15"/>
       <c r="AB78" s="11"/>
       <c r="AC78" s="11" t="s">
         <v>42</v>
@@ -3761,7 +3776,7 @@
         <v>75</v>
       </c>
       <c r="Z79" s="14"/>
-      <c r="AA79" s="17"/>
+      <c r="AA79" s="15"/>
       <c r="AB79" s="11"/>
       <c r="AC79" s="11" t="s">
         <v>43</v>
@@ -3788,7 +3803,7 @@
       <c r="Z80" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AA80" s="17"/>
+      <c r="AA80" s="15"/>
       <c r="AB80" s="11"/>
       <c r="AC80" s="11" t="s">
         <v>44</v>
@@ -3815,7 +3830,7 @@
         <v>77</v>
       </c>
       <c r="Z81" s="14"/>
-      <c r="AA81" s="17" t="s">
+      <c r="AA81" s="15" t="s">
         <v>107</v>
       </c>
       <c r="AB81" s="11"/>
@@ -3829,6 +3844,9 @@
       <c r="AL81" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AO81" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
@@ -3844,7 +3862,7 @@
         <v>78</v>
       </c>
       <c r="Z82" s="14"/>
-      <c r="AA82" s="17"/>
+      <c r="AA82" s="15"/>
       <c r="AB82" s="11"/>
       <c r="AC82" s="11" t="s">
         <v>91</v>
@@ -3854,9 +3872,6 @@
         <v>127</v>
       </c>
       <c r="AL82" s="14"/>
-      <c r="AO82" s="1" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
@@ -3872,7 +3887,7 @@
         <v>79</v>
       </c>
       <c r="Z83" s="14"/>
-      <c r="AA83" s="17"/>
+      <c r="AA83" s="15"/>
       <c r="AB83" s="11"/>
       <c r="AC83" s="11" t="s">
         <v>92</v>
@@ -3900,17 +3915,17 @@
         <v>80</v>
       </c>
       <c r="Z84" s="14"/>
-      <c r="AA84" s="17"/>
+      <c r="AA84" s="15"/>
       <c r="AB84" s="11"/>
       <c r="AC84" s="11" t="s">
         <v>98</v>
       </c>
       <c r="AD84" s="11"/>
-      <c r="AK84" s="26" t="s">
+      <c r="AK84" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AL84" s="26"/>
-      <c r="AM84" s="26"/>
+      <c r="AL84" s="20"/>
+      <c r="AM84" s="20"/>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
@@ -3926,7 +3941,7 @@
         <v>81</v>
       </c>
       <c r="Z85" s="14"/>
-      <c r="AA85" s="17"/>
+      <c r="AA85" s="15"/>
       <c r="AB85" s="11"/>
       <c r="AC85" s="11" t="s">
         <v>99</v>
@@ -3952,7 +3967,7 @@
         <v>82</v>
       </c>
       <c r="Z86" s="14"/>
-      <c r="AA86" s="17"/>
+      <c r="AA86" s="15"/>
       <c r="AB86" s="11"/>
       <c r="AC86" s="11" t="s">
         <v>100</v>
@@ -3978,7 +3993,7 @@
         <v>83</v>
       </c>
       <c r="Z87" s="14"/>
-      <c r="AA87" s="17"/>
+      <c r="AA87" s="15"/>
       <c r="AB87" s="11"/>
       <c r="AC87" s="11" t="s">
         <v>3</v>
@@ -4006,7 +4021,7 @@
       <c r="Z88" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AA88" s="17"/>
+      <c r="AA88" s="15"/>
       <c r="AB88" s="11" t="s">
         <v>3</v>
       </c>
@@ -4034,7 +4049,7 @@
         <v>85</v>
       </c>
       <c r="Z89" s="14"/>
-      <c r="AA89" s="17" t="s">
+      <c r="AA89" s="15" t="s">
         <v>104</v>
       </c>
       <c r="AB89" s="11" t="s">
@@ -4049,6 +4064,9 @@
         <v>90</v>
       </c>
       <c r="AJ89" s="11"/>
+      <c r="AO89" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
@@ -4064,20 +4082,17 @@
         <v>86</v>
       </c>
       <c r="Z90" s="14"/>
-      <c r="AA90" s="17"/>
-      <c r="AB90" s="24" t="s">
+      <c r="AA90" s="15"/>
+      <c r="AB90" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="AC90" s="24"/>
+      <c r="AC90" s="18"/>
       <c r="AD90" s="11"/>
       <c r="AH90" s="11"/>
       <c r="AI90" s="11" t="s">
         <v>91</v>
       </c>
       <c r="AJ90" s="11"/>
-      <c r="AO90" s="1" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
@@ -4093,11 +4108,11 @@
         <v>87</v>
       </c>
       <c r="Z91" s="14"/>
-      <c r="AA91" s="17"/>
-      <c r="AB91" s="24" t="s">
+      <c r="AA91" s="15"/>
+      <c r="AB91" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="AC91" s="24"/>
+      <c r="AC91" s="18"/>
       <c r="AD91" s="11" t="s">
         <v>3</v>
       </c>
@@ -4121,12 +4136,12 @@
         <v>88</v>
       </c>
       <c r="Z92" s="14"/>
-      <c r="AA92" s="17"/>
-      <c r="AB92" s="23" t="s">
+      <c r="AA92" s="15"/>
+      <c r="AB92" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="AC92" s="23"/>
-      <c r="AD92" s="23"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="17"/>
       <c r="AH92" s="11"/>
       <c r="AI92" s="11" t="s">
         <v>98</v>
@@ -4147,7 +4162,7 @@
         <v>89</v>
       </c>
       <c r="Z93" s="14"/>
-      <c r="AA93" s="17"/>
+      <c r="AA93" s="15"/>
       <c r="AE93" s="7"/>
       <c r="AF93" s="8" t="s">
         <v>41</v>
@@ -4173,7 +4188,7 @@
         <v>90</v>
       </c>
       <c r="Z94" s="14"/>
-      <c r="AA94" s="17"/>
+      <c r="AA94" s="15"/>
       <c r="AE94" s="7"/>
       <c r="AF94" s="7" t="s">
         <v>42</v>
@@ -4199,7 +4214,7 @@
         <v>91</v>
       </c>
       <c r="Z95" s="14"/>
-      <c r="AA95" s="17"/>
+      <c r="AA95" s="15"/>
       <c r="AE95" s="7"/>
       <c r="AF95" s="7" t="s">
         <v>43</v>
@@ -4227,7 +4242,7 @@
       <c r="Z96" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AA96" s="17"/>
+      <c r="AA96" s="15"/>
       <c r="AE96" s="7"/>
       <c r="AF96" s="7" t="s">
         <v>44</v>
@@ -4255,7 +4270,7 @@
         <v>93</v>
       </c>
       <c r="Z97" s="14"/>
-      <c r="AA97" s="17" t="s">
+      <c r="AA97" s="15" t="s">
         <v>105</v>
       </c>
       <c r="AE97" s="7"/>
@@ -4270,6 +4285,9 @@
         <v>101</v>
       </c>
       <c r="AJ97" s="11"/>
+      <c r="AO97" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
@@ -4285,20 +4303,17 @@
         <v>94</v>
       </c>
       <c r="Z98" s="14"/>
-      <c r="AA98" s="17"/>
+      <c r="AA98" s="15"/>
       <c r="AE98" s="7"/>
       <c r="AF98" s="7" t="s">
         <v>91</v>
       </c>
       <c r="AG98" s="7"/>
-      <c r="AH98" s="24" t="s">
+      <c r="AH98" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="AI98" s="24"/>
+      <c r="AI98" s="18"/>
       <c r="AJ98" s="11"/>
-      <c r="AO98" s="1" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
@@ -4314,16 +4329,16 @@
         <v>95</v>
       </c>
       <c r="Z99" s="14"/>
-      <c r="AA99" s="17"/>
+      <c r="AA99" s="15"/>
       <c r="AE99" s="7"/>
       <c r="AF99" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AG99" s="7"/>
-      <c r="AH99" s="24" t="s">
+      <c r="AH99" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="AI99" s="24"/>
+      <c r="AI99" s="18"/>
       <c r="AJ99" s="11" t="s">
         <v>3</v>
       </c>
@@ -4342,17 +4357,17 @@
         <v>96</v>
       </c>
       <c r="Z100" s="14"/>
-      <c r="AA100" s="17"/>
+      <c r="AA100" s="15"/>
       <c r="AE100" s="7"/>
       <c r="AF100" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AG100" s="7"/>
-      <c r="AH100" s="25" t="s">
+      <c r="AH100" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AI100" s="25"/>
-      <c r="AJ100" s="25"/>
+      <c r="AI100" s="19"/>
+      <c r="AJ100" s="19"/>
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
@@ -4368,7 +4383,7 @@
         <v>97</v>
       </c>
       <c r="Z101" s="14"/>
-      <c r="AA101" s="17"/>
+      <c r="AA101" s="15"/>
       <c r="AE101" s="7"/>
       <c r="AF101" s="7" t="s">
         <v>99</v>
@@ -4394,7 +4409,7 @@
         <v>98</v>
       </c>
       <c r="Z102" s="14"/>
-      <c r="AA102" s="17"/>
+      <c r="AA102" s="15"/>
       <c r="AE102" s="7"/>
       <c r="AF102" s="7" t="s">
         <v>100</v>
@@ -4420,7 +4435,7 @@
         <v>99</v>
       </c>
       <c r="Z103" s="14"/>
-      <c r="AA103" s="17"/>
+      <c r="AA103" s="15"/>
       <c r="AE103" s="7"/>
       <c r="AF103" s="7" t="s">
         <v>3</v>
@@ -4448,7 +4463,7 @@
       <c r="Z104" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AA104" s="17"/>
+      <c r="AA104" s="15"/>
       <c r="AE104" s="7" t="s">
         <v>3</v>
       </c>
@@ -4476,7 +4491,7 @@
         <v>101</v>
       </c>
       <c r="Z105" s="14"/>
-      <c r="AA105" s="17" t="s">
+      <c r="AA105" s="15" t="s">
         <v>106</v>
       </c>
       <c r="AE105" s="7" t="s">
@@ -4506,11 +4521,11 @@
         <v>102</v>
       </c>
       <c r="Z106" s="14"/>
-      <c r="AA106" s="17"/>
-      <c r="AE106" s="22" t="s">
+      <c r="AA106" s="15"/>
+      <c r="AE106" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AF106" s="22"/>
+      <c r="AF106" s="16"/>
       <c r="AG106" s="7"/>
       <c r="AK106" s="7"/>
       <c r="AL106" s="7" t="s">
@@ -4520,11 +4535,11 @@
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.45">
       <c r="Z107" s="14"/>
-      <c r="AA107" s="17"/>
-      <c r="AE107" s="22" t="s">
+      <c r="AA107" s="15"/>
+      <c r="AE107" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="AF107" s="22"/>
+      <c r="AF107" s="16"/>
       <c r="AG107" s="7" t="s">
         <v>3</v>
       </c>
@@ -4536,12 +4551,12 @@
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.45">
       <c r="Z108" s="14"/>
-      <c r="AA108" s="17"/>
-      <c r="AE108" s="22" t="s">
+      <c r="AA108" s="15"/>
+      <c r="AE108" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AF108" s="22"/>
-      <c r="AG108" s="22"/>
+      <c r="AF108" s="16"/>
+      <c r="AG108" s="16"/>
       <c r="AK108" s="7"/>
       <c r="AL108" s="7" t="s">
         <v>98</v>
@@ -4550,7 +4565,7 @@
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.45">
       <c r="Z109" s="14"/>
-      <c r="AA109" s="17"/>
+      <c r="AA109" s="15"/>
       <c r="AK109" s="7"/>
       <c r="AL109" s="7" t="s">
         <v>99</v>
@@ -4559,7 +4574,7 @@
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.45">
       <c r="Z110" s="14"/>
-      <c r="AA110" s="17"/>
+      <c r="AA110" s="15"/>
       <c r="AK110" s="7"/>
       <c r="AL110" s="7" t="s">
         <v>100</v>
@@ -4568,7 +4583,7 @@
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.45">
       <c r="Z111" s="14"/>
-      <c r="AA111" s="17"/>
+      <c r="AA111" s="15"/>
       <c r="AK111" s="7"/>
       <c r="AL111" s="7" t="s">
         <v>3</v>
@@ -4579,7 +4594,7 @@
       <c r="Z112" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AA112" s="17"/>
+      <c r="AA112" s="15"/>
       <c r="AK112" s="7" t="s">
         <v>3</v>
       </c>
@@ -4590,7 +4605,7 @@
     </row>
     <row r="113" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z113" s="14"/>
-      <c r="AA113" s="17" t="s">
+      <c r="AA113" s="15" t="s">
         <v>107</v>
       </c>
       <c r="AK113" s="7" t="s">
@@ -4603,72 +4618,133 @@
     </row>
     <row r="114" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z114" s="14"/>
-      <c r="AA114" s="17"/>
-      <c r="AK114" s="22" t="s">
+      <c r="AA114" s="15"/>
+      <c r="AK114" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AL114" s="22"/>
+      <c r="AL114" s="16"/>
       <c r="AM114" s="7"/>
     </row>
     <row r="115" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z115" s="14"/>
-      <c r="AA115" s="17"/>
-      <c r="AK115" s="22" t="s">
+      <c r="AA115" s="15"/>
+      <c r="AK115" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="AL115" s="22"/>
+      <c r="AL115" s="16"/>
       <c r="AM115" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z116" s="14"/>
-      <c r="AA116" s="17"/>
-      <c r="AK116" s="22" t="s">
+      <c r="AA116" s="15"/>
+      <c r="AK116" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AL116" s="22"/>
-      <c r="AM116" s="22"/>
+      <c r="AL116" s="16"/>
+      <c r="AM116" s="16"/>
     </row>
     <row r="117" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z117" s="14"/>
-      <c r="AA117" s="17"/>
+      <c r="AA117" s="15"/>
     </row>
     <row r="118" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z118" s="14"/>
-      <c r="AA118" s="17"/>
+      <c r="AA118" s="15"/>
     </row>
     <row r="119" spans="26:39" x14ac:dyDescent="0.45">
       <c r="Z119" s="14"/>
-      <c r="AA119" s="17"/>
+      <c r="AA119" s="15"/>
     </row>
     <row r="120" spans="26:39" x14ac:dyDescent="0.45">
-      <c r="AA120" s="17"/>
+      <c r="AA120" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="Z96:Z103"/>
-    <mergeCell ref="Z104:Z111"/>
-    <mergeCell ref="Z112:Z119"/>
-    <mergeCell ref="AA89:AA96"/>
-    <mergeCell ref="AA97:AA104"/>
-    <mergeCell ref="AA105:AA112"/>
-    <mergeCell ref="AA113:AA120"/>
-    <mergeCell ref="AE107:AF107"/>
-    <mergeCell ref="AE108:AG108"/>
-    <mergeCell ref="AK114:AL114"/>
-    <mergeCell ref="AK115:AL115"/>
-    <mergeCell ref="AK116:AM116"/>
-    <mergeCell ref="AB92:AD92"/>
-    <mergeCell ref="AH98:AI98"/>
-    <mergeCell ref="AH99:AI99"/>
-    <mergeCell ref="AH100:AJ100"/>
-    <mergeCell ref="AE106:AF106"/>
-    <mergeCell ref="AK82:AL82"/>
-    <mergeCell ref="AK83:AL83"/>
-    <mergeCell ref="AK84:AM84"/>
-    <mergeCell ref="AB90:AC90"/>
-    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z1:AM1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="F41:M41"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="F43:M43"/>
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="F39:M39"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="O21:V21"/>
+    <mergeCell ref="O22:V22"/>
+    <mergeCell ref="O23:V23"/>
+    <mergeCell ref="O24:V24"/>
+    <mergeCell ref="O25:V25"/>
+    <mergeCell ref="O16:V16"/>
+    <mergeCell ref="O17:V17"/>
+    <mergeCell ref="O18:V18"/>
+    <mergeCell ref="O19:V19"/>
+    <mergeCell ref="O20:V20"/>
+    <mergeCell ref="O41:V41"/>
+    <mergeCell ref="O42:V42"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="O27:V27"/>
+    <mergeCell ref="O28:V28"/>
+    <mergeCell ref="O29:V29"/>
+    <mergeCell ref="O30:V30"/>
+    <mergeCell ref="O31:V31"/>
+    <mergeCell ref="O32:V32"/>
+    <mergeCell ref="O33:V33"/>
+    <mergeCell ref="O34:V34"/>
+    <mergeCell ref="O35:V35"/>
+    <mergeCell ref="Z80:Z87"/>
+    <mergeCell ref="AA65:AA72"/>
+    <mergeCell ref="AA73:AA80"/>
+    <mergeCell ref="AA81:AA88"/>
+    <mergeCell ref="AB59:AC59"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="Z88:Z95"/>
+    <mergeCell ref="Z24:Z31"/>
+    <mergeCell ref="Z32:Z39"/>
+    <mergeCell ref="Z40:Z47"/>
+    <mergeCell ref="Z48:Z55"/>
+    <mergeCell ref="Z56:Z63"/>
+    <mergeCell ref="AA25:AA32"/>
+    <mergeCell ref="AA33:AA40"/>
+    <mergeCell ref="AA41:AA48"/>
+    <mergeCell ref="AA49:AA56"/>
+    <mergeCell ref="AA57:AA64"/>
     <mergeCell ref="AE75:AF75"/>
     <mergeCell ref="AE76:AG76"/>
     <mergeCell ref="AH66:AI66"/>
@@ -4693,89 +4769,28 @@
     <mergeCell ref="O46:X46"/>
     <mergeCell ref="O43:V43"/>
     <mergeCell ref="O44:V44"/>
-    <mergeCell ref="Z80:Z87"/>
-    <mergeCell ref="AA65:AA72"/>
-    <mergeCell ref="AA73:AA80"/>
-    <mergeCell ref="AA81:AA88"/>
-    <mergeCell ref="AB59:AC59"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="Z88:Z95"/>
-    <mergeCell ref="Z24:Z31"/>
-    <mergeCell ref="Z32:Z39"/>
-    <mergeCell ref="Z40:Z47"/>
-    <mergeCell ref="Z48:Z55"/>
-    <mergeCell ref="Z56:Z63"/>
-    <mergeCell ref="AA25:AA32"/>
-    <mergeCell ref="AA33:AA40"/>
-    <mergeCell ref="AA41:AA48"/>
-    <mergeCell ref="AA49:AA56"/>
-    <mergeCell ref="AA57:AA64"/>
-    <mergeCell ref="O41:V41"/>
-    <mergeCell ref="O42:V42"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="O26:V26"/>
-    <mergeCell ref="O27:V27"/>
-    <mergeCell ref="O28:V28"/>
-    <mergeCell ref="O29:V29"/>
-    <mergeCell ref="O30:V30"/>
-    <mergeCell ref="O31:V31"/>
-    <mergeCell ref="O32:V32"/>
-    <mergeCell ref="O33:V33"/>
-    <mergeCell ref="O34:V34"/>
-    <mergeCell ref="O35:V35"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F38:M38"/>
-    <mergeCell ref="O21:V21"/>
-    <mergeCell ref="O22:V22"/>
-    <mergeCell ref="O23:V23"/>
-    <mergeCell ref="O24:V24"/>
-    <mergeCell ref="O25:V25"/>
-    <mergeCell ref="O16:V16"/>
-    <mergeCell ref="O17:V17"/>
-    <mergeCell ref="O18:V18"/>
-    <mergeCell ref="O19:V19"/>
-    <mergeCell ref="O20:V20"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="F43:M43"/>
-    <mergeCell ref="F44:M44"/>
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="Z1:AM1"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="AK114:AL114"/>
+    <mergeCell ref="AK115:AL115"/>
+    <mergeCell ref="AK116:AM116"/>
+    <mergeCell ref="AB92:AD92"/>
+    <mergeCell ref="AH98:AI98"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="AH100:AJ100"/>
+    <mergeCell ref="AE106:AF106"/>
+    <mergeCell ref="AK82:AL82"/>
+    <mergeCell ref="AK83:AL83"/>
+    <mergeCell ref="AK84:AM84"/>
+    <mergeCell ref="AB90:AC90"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z96:Z103"/>
+    <mergeCell ref="Z104:Z111"/>
+    <mergeCell ref="Z112:Z119"/>
+    <mergeCell ref="AA89:AA96"/>
+    <mergeCell ref="AA97:AA104"/>
+    <mergeCell ref="AA105:AA112"/>
+    <mergeCell ref="AA113:AA120"/>
+    <mergeCell ref="AE107:AF107"/>
+    <mergeCell ref="AE108:AG108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
